--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20392"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LHU\1111Class\wamp64\www\team01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\team01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDE644A-DB2E-4EE5-9069-DE1EB65200B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
@@ -30,12 +29,12 @@
     <sheet name="長期晚歸表格(lates)" sheetId="12" r:id="rId15"/>
     <sheet name="人臉表格(features)" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="361">
   <si>
     <t>中文欄位名稱</t>
   </si>
@@ -742,16 +741,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>83410-2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>83410-3</t>
-  </si>
-  <si>
-    <t>83410-4</t>
-  </si>
-  <si>
     <t>02-82093221</t>
   </si>
   <si>
@@ -812,15 +801,6 @@
     <t>02-82093240</t>
   </si>
   <si>
-    <t>02-82093241</t>
-  </si>
-  <si>
-    <t>02-82093242</t>
-  </si>
-  <si>
-    <t>02-82093243</t>
-  </si>
-  <si>
     <t>D1114162716</t>
   </si>
   <si>
@@ -939,24 +919,6 @@
   </si>
   <si>
     <t>許中豪</t>
-  </si>
-  <si>
-    <t>D1114161022</t>
-  </si>
-  <si>
-    <t>楊凱翔</t>
-  </si>
-  <si>
-    <t>D1114421048</t>
-  </si>
-  <si>
-    <t>李克敏</t>
-  </si>
-  <si>
-    <t>D1114161032</t>
-  </si>
-  <si>
-    <t>林詩諺</t>
   </si>
   <si>
     <r>
@@ -1002,9 +964,6 @@
     <t>機械一B</t>
   </si>
   <si>
-    <t>遊戲一A</t>
-  </si>
-  <si>
     <t>陳零一</t>
   </si>
   <si>
@@ -1064,15 +1023,6 @@
   </si>
   <si>
     <t>莊零九</t>
-  </si>
-  <si>
-    <t>林零零</t>
-  </si>
-  <si>
-    <t>林零一</t>
-  </si>
-  <si>
-    <t>林零二</t>
   </si>
   <si>
     <t>樓長的學生編號(外鍵)</t>
@@ -1222,13 +1172,105 @@
     <t>path</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>.\mfa\SZc.jpg</t>
+  </si>
+  <si>
+    <t>.\APw\hIs.jpg</t>
+  </si>
+  <si>
+    <t>.\NeK\NVc.jpg</t>
+  </si>
+  <si>
+    <t>.\lOb\BGt.jpg</t>
+  </si>
+  <si>
+    <t>.\SHn\jPp.jpg</t>
+  </si>
+  <si>
+    <t>.\qSk\GjY.jpg</t>
+  </si>
+  <si>
+    <t>.\gSq\PAr.jpg</t>
+  </si>
+  <si>
+    <t>.\IQA\qus.jpg</t>
+  </si>
+  <si>
+    <t>.\GLo\qfn.jpg</t>
+  </si>
+  <si>
+    <t>.\CNe\LmR.jpg</t>
+  </si>
+  <si>
+    <t>.\Vxn\irs.jpg</t>
+  </si>
+  <si>
+    <t>.\anu\XWa.jpg</t>
+  </si>
+  <si>
+    <t>.\xlo\wgV.jpg</t>
+  </si>
+  <si>
+    <t>.\goH\oGD.jpg</t>
+  </si>
+  <si>
+    <t>.\UBo\ZQO.jpg</t>
+  </si>
+  <si>
+    <t>.\syc\iTm.jpg</t>
+  </si>
+  <si>
+    <t>.\hCH\hHK.jpg</t>
+  </si>
+  <si>
+    <t>.\WSi\iYx.jpg</t>
+  </si>
+  <si>
+    <t>.\Pia\bwY.jpg</t>
+  </si>
+  <si>
+    <t>.\hAg\Vxo.jpg</t>
+  </si>
+  <si>
+    <t>.\tOP\pex.jpg</t>
+  </si>
+  <si>
+    <t>.\Lim\aSp.jpg</t>
+  </si>
+  <si>
+    <t>.\DOI\DuW.jpg</t>
+  </si>
+  <si>
+    <t>.\Eje\ZYv.jpg</t>
+  </si>
+  <si>
+    <t>.\Eao\EzL.jpg</t>
+  </si>
+  <si>
+    <t>.\izN\tvR.jpg</t>
+  </si>
+  <si>
+    <t>.\uTo\zpg.jpg</t>
+  </si>
+  <si>
+    <t>.\Dvt\PLr.jpg</t>
+  </si>
+  <si>
+    <t>.\mpQ\UDe.jpg</t>
+  </si>
+  <si>
+    <t>.\lXF\qZl.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="186" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="192" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -1521,7 +1563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1738,9 +1780,6 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1750,14 +1789,27 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="186" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2060,14 +2112,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2124,7 +2176,7 @@
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
       <c r="A2" s="16">
-        <f t="shared" ref="A2:A34" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -2458,25 +2510,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>127</v>
@@ -2491,25 +2543,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>132</v>
@@ -2524,25 +2576,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>127</v>
@@ -2557,25 +2609,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>132</v>
@@ -2590,25 +2642,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>127</v>
@@ -2623,25 +2675,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>132</v>
@@ -2656,25 +2708,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>127</v>
@@ -2689,25 +2741,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>132</v>
@@ -2722,25 +2774,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>127</v>
@@ -2755,25 +2807,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>132</v>
@@ -2788,25 +2840,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>127</v>
@@ -2821,25 +2873,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>132</v>
@@ -2854,25 +2906,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>127</v>
@@ -2887,25 +2939,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>132</v>
@@ -2920,25 +2972,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>127</v>
@@ -2953,25 +3005,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>132</v>
@@ -2986,25 +3038,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>127</v>
@@ -3019,25 +3071,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>132</v>
@@ -3052,25 +3104,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>127</v>
@@ -3085,25 +3137,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>132</v>
@@ -3113,101 +3165,46 @@
       <c r="L31" s="65"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="16">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="16">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J33" s="18"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="16">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -3216,7 +3213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3281,7 +3278,7 @@
         <v>83</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>36</v>
@@ -3310,7 +3307,7 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="44" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>39</v>
@@ -3363,7 +3360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3459,17 +3456,17 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="68" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="69" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="F5" s="70"/>
     </row>
@@ -3528,7 +3525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3661,7 +3658,7 @@
         <v>173</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C7" s="62" t="s">
         <v>174</v>
@@ -3676,17 +3673,17 @@
     </row>
     <row r="8" spans="1:6" s="52" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="62" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="63" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="F8" s="62"/>
     </row>
@@ -3729,7 +3726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3797,7 +3794,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
@@ -3843,7 +3840,7 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -3917,7 +3914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4048,7 +4045,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
@@ -4114,7 +4111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4260,7 +4257,7 @@
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>39</v>
@@ -4276,7 +4273,7 @@
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>40</v>
@@ -4308,7 +4305,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>177</v>
@@ -4327,7 +4324,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>18</v>
@@ -4343,7 +4340,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
@@ -4359,7 +4356,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>18</v>
@@ -4375,7 +4372,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
@@ -4426,14 +4423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FF2CBD-CE78-4D50-8292-6FA3E39E19C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4488,7 +4485,7 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -4506,13 +4503,13 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
@@ -4522,13 +4519,13 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
@@ -4576,14 +4573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G34" sqref="A32:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4621,7 +4618,7 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="16">
-        <f t="shared" ref="A2:A34" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -4631,7 +4628,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>103</v>
@@ -4651,7 +4648,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>103</v>
@@ -4671,7 +4668,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>103</v>
@@ -4691,7 +4688,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>103</v>
@@ -4711,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>103</v>
@@ -4731,7 +4728,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>103</v>
@@ -4751,7 +4748,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>103</v>
@@ -4771,7 +4768,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>103</v>
@@ -4791,7 +4788,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>103</v>
@@ -4811,7 +4808,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>103</v>
@@ -4831,7 +4828,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>103</v>
@@ -4851,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>103</v>
@@ -4871,7 +4868,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>103</v>
@@ -4891,7 +4888,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>103</v>
@@ -4911,7 +4908,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>103</v>
@@ -4931,7 +4928,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>103</v>
@@ -4951,7 +4948,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>103</v>
@@ -4971,7 +4968,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>103</v>
@@ -4991,7 +4988,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>103</v>
@@ -5011,7 +5008,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>103</v>
@@ -5031,7 +5028,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>103</v>
@@ -5051,7 +5048,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>103</v>
@@ -5071,7 +5068,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>103</v>
@@ -5091,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>103</v>
@@ -5111,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>103</v>
@@ -5131,7 +5128,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>103</v>
@@ -5151,7 +5148,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>103</v>
@@ -5171,7 +5168,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>103</v>
@@ -5191,7 +5188,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>103</v>
@@ -5211,7 +5208,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>103</v>
@@ -5220,118 +5217,70 @@
       <c r="G31" s="66"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="16">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" s="16">
-        <v>4</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="16">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="16">
-        <v>4</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="16">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C34" s="16">
-        <v>4</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="16"/>
       <c r="B35" s="18"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:2">
       <c r="A36" s="16"/>
       <c r="B36" s="18"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:2">
       <c r="A37" s="16"/>
       <c r="B37" s="18"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:2">
       <c r="A38" s="16"/>
       <c r="B38" s="18"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:2">
       <c r="A39" s="16"/>
       <c r="B39" s="18"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:2">
       <c r="A40" s="16"/>
       <c r="B40" s="18"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:2">
       <c r="A41" s="16"/>
       <c r="B41" s="18"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:2">
       <c r="A42" s="16"/>
-      <c r="B42" s="18"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="B42" s="43"/>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="16"/>
-      <c r="B43" s="18"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="B43" s="43"/>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="16"/>
       <c r="B44" s="18"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:2">
       <c r="A45" s="16"/>
-      <c r="B45" s="43"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="B45" s="18"/>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="16"/>
-      <c r="B46" s="43"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="B46" s="18"/>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="16"/>
       <c r="B47" s="18"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:2">
       <c r="A48" s="16"/>
       <c r="B48" s="18"/>
     </row>
@@ -5357,11 +5306,11 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="16"/>
-      <c r="B54" s="18"/>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="16"/>
-      <c r="B55" s="18"/>
+      <c r="B55" s="43"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="16"/>
@@ -5369,11 +5318,11 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="16"/>
-      <c r="B57" s="43"/>
+      <c r="B57" s="18"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="16"/>
-      <c r="B58" s="43"/>
+      <c r="B58" s="18"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="16"/>
@@ -5405,11 +5354,11 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="16"/>
-      <c r="B66" s="18"/>
+      <c r="B66" s="43"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="16"/>
-      <c r="B67" s="18"/>
+      <c r="B67" s="43"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="16"/>
@@ -5417,11 +5366,11 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="16"/>
-      <c r="B69" s="43"/>
+      <c r="B69" s="18"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="16"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="18"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="16"/>
@@ -5453,11 +5402,11 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="16"/>
-      <c r="B78" s="18"/>
+      <c r="B78" s="43"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="16"/>
-      <c r="B79" s="18"/>
+      <c r="B79" s="43"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="16"/>
@@ -5465,11 +5414,11 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="16"/>
-      <c r="B81" s="43"/>
+      <c r="B81" s="18"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="16"/>
-      <c r="B82" s="43"/>
+      <c r="B82" s="18"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="16"/>
@@ -5501,11 +5450,11 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="16"/>
-      <c r="B90" s="18"/>
+      <c r="B90" s="43"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="16"/>
-      <c r="B91" s="18"/>
+      <c r="B91" s="43"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="16"/>
@@ -5513,11 +5462,11 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="16"/>
-      <c r="B93" s="43"/>
+      <c r="B93" s="18"/>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="16"/>
-      <c r="B94" s="43"/>
+      <c r="B94" s="18"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="16"/>
@@ -5549,11 +5498,11 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="16"/>
-      <c r="B102" s="18"/>
+      <c r="B102" s="43"/>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="16"/>
-      <c r="B103" s="18"/>
+      <c r="B103" s="43"/>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="16"/>
@@ -5561,11 +5510,11 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="16"/>
-      <c r="B105" s="43"/>
+      <c r="B105" s="18"/>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="16"/>
-      <c r="B106" s="43"/>
+      <c r="B106" s="18"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="16"/>
@@ -5597,11 +5546,11 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="16"/>
-      <c r="B114" s="18"/>
+      <c r="B114" s="43"/>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="16"/>
-      <c r="B115" s="18"/>
+      <c r="B115" s="43"/>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="16"/>
@@ -5609,11 +5558,11 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="16"/>
-      <c r="B117" s="43"/>
+      <c r="B117" s="18"/>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="16"/>
-      <c r="B118" s="43"/>
+      <c r="B118" s="18"/>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="16"/>
@@ -5645,11 +5594,11 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="16"/>
-      <c r="B126" s="18"/>
+      <c r="B126" s="43"/>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="16"/>
-      <c r="B127" s="18"/>
+      <c r="B127" s="43"/>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="16"/>
@@ -5657,34 +5606,22 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="16"/>
-      <c r="B129" s="43"/>
+      <c r="B129" s="18"/>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="16"/>
-      <c r="B130" s="43"/>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="16"/>
-      <c r="B131" s="18"/>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="16"/>
-      <c r="B132" s="18"/>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="16"/>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="16"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="16"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="16"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -5693,7 +5630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5723,7 +5660,7 @@
         <v>85</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>24</v>
@@ -5807,14 +5744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5848,7 +5785,7 @@
         <v>171</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>24</v>
@@ -5878,7 +5815,7 @@
         <v>172</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -6440,112 +6377,46 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="16">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="16">
-        <v>111</v>
-      </c>
-      <c r="C32" s="16">
-        <v>1</v>
-      </c>
-      <c r="D32" s="16">
-        <v>31</v>
-      </c>
-      <c r="E32" s="16">
-        <v>31</v>
-      </c>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="16">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="16">
-        <v>111</v>
-      </c>
-      <c r="C33" s="16">
-        <v>1</v>
-      </c>
-      <c r="D33" s="16">
-        <v>32</v>
-      </c>
-      <c r="E33" s="16">
-        <v>32</v>
-      </c>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="16">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="16">
-        <v>111</v>
-      </c>
-      <c r="C34" s="16">
-        <v>1</v>
-      </c>
-      <c r="D34" s="16">
-        <v>33</v>
-      </c>
-      <c r="E34" s="16">
-        <v>33</v>
-      </c>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="16">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="16">
-        <v>111</v>
-      </c>
-      <c r="C35" s="16">
-        <v>1</v>
-      </c>
-      <c r="D35" s="16">
-        <v>34</v>
-      </c>
-      <c r="E35" s="16">
-        <v>34</v>
-      </c>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="16">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="16">
-        <v>111</v>
-      </c>
-      <c r="C36" s="16">
-        <v>1</v>
-      </c>
-      <c r="D36" s="16">
-        <v>35</v>
-      </c>
-      <c r="E36" s="16">
-        <v>35</v>
-      </c>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="16">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="16">
-        <v>111</v>
-      </c>
-      <c r="C37" s="16">
-        <v>1</v>
-      </c>
-      <c r="D37" s="16">
-        <v>36</v>
-      </c>
-      <c r="E37" s="16">
-        <v>36</v>
-      </c>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="16"/>
@@ -6570,7 +6441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6671,7 +6542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6714,13 +6585,13 @@
         <v>34</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="G1" s="72" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>41</v>
@@ -6833,14 +6704,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="A32:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6862,7 +6733,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>29</v>
@@ -6885,7 +6756,7 @@
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
       <c r="A2" s="16">
-        <f t="shared" ref="A2:A34" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="17">
@@ -7203,7 +7074,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7223,7 +7094,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7243,7 +7114,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7263,7 +7134,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7283,7 +7154,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7303,7 +7174,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9">
       <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7323,7 +7194,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9">
       <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7343,7 +7214,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9">
       <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7363,7 +7234,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9">
       <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7383,7 +7254,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9">
       <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7403,7 +7274,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:9">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7423,7 +7294,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:9">
       <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7443,7 +7314,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:9">
       <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7463,7 +7334,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:9">
       <c r="A30" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7483,7 +7354,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:9">
       <c r="A31" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7503,65 +7374,38 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="16">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C32" s="57">
-        <v>1</v>
-      </c>
-      <c r="D32" s="16">
-        <v>31</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="16">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C33" s="57">
-        <v>1</v>
-      </c>
-      <c r="D33" s="16">
-        <v>32</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="16">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C34" s="57">
-        <v>1</v>
-      </c>
-      <c r="D34" s="16">
-        <v>33</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+    <row r="32" spans="1:9">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -7570,20 +7414,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0851BCC-0250-4CE9-B5F2-A331492F2236}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:J13"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="85" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" style="56" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
@@ -7595,19 +7439,19 @@
       <c r="A1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="83" t="s">
         <v>81</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>343</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>342</v>
-      </c>
-      <c r="E1" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="79" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="74"/>
@@ -7615,382 +7459,562 @@
       <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="81">
+      <c r="A2" s="80">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="81"/>
+      <c r="B2" s="86">
+        <v>1</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="88">
+        <v>8.7949999999999996E-4</v>
+      </c>
       <c r="E2" s="65"/>
       <c r="F2" s="65"/>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A3" s="81">
+      <c r="A3" s="80">
         <f t="shared" ref="A3:A31" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="87">
+        <v>2</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="88">
+        <v>7.9635000000000003E-4</v>
+      </c>
       <c r="E3" s="65"/>
       <c r="F3" s="65"/>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A4" s="81">
+      <c r="A4" s="80">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="86">
+        <v>3</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="88">
+        <v>-0.33363999999999999</v>
+      </c>
       <c r="E4" s="65"/>
       <c r="F4" s="65"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A5" s="81">
+      <c r="A5" s="80">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="87">
+        <v>4</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="88">
+        <v>6.3299999999999994E-5</v>
+      </c>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A6" s="81">
+      <c r="A6" s="80">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="81"/>
+      <c r="B6" s="86">
+        <v>5</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="88">
+        <v>-2.9310000000000002E-4</v>
+      </c>
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A7" s="81">
+      <c r="A7" s="80">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="81"/>
+      <c r="B7" s="87">
+        <v>6</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="88">
+        <v>-0.32168099999999999</v>
+      </c>
       <c r="E7" s="66"/>
       <c r="F7" s="66"/>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="81">
+      <c r="A8" s="80">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="81"/>
+      <c r="B8" s="86">
+        <v>7</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="88">
+        <v>-0.237215913333333</v>
+      </c>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="81">
+      <c r="A9" s="80">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="81"/>
+      <c r="B9" s="87">
+        <v>8</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="81">
+      <c r="A10" s="80">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="81"/>
+      <c r="B10" s="86">
+        <v>9</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" s="88">
+        <v>6.6836999999999999E-3</v>
+      </c>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="81">
+      <c r="A11" s="80">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="81"/>
+      <c r="B11" s="87">
+        <v>10</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="88">
+        <v>0.28722238619047602</v>
+      </c>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="81">
+      <c r="A12" s="80">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="81"/>
+      <c r="B12" s="86">
+        <v>11</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="88">
+        <v>0.56776107238095197</v>
+      </c>
       <c r="E12" s="66"/>
       <c r="F12" s="66"/>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="81">
+      <c r="A13" s="80">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="81"/>
+      <c r="B13" s="87">
+        <v>12</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="88">
+        <v>0.84829975857142403</v>
+      </c>
       <c r="E13" s="66"/>
       <c r="F13" s="66"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="81">
+      <c r="A14" s="80">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="81"/>
+      <c r="B14" s="86">
+        <v>13</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E14" s="66"/>
       <c r="F14" s="66"/>
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="81">
+      <c r="A15" s="80">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="81"/>
+      <c r="B15" s="87">
+        <v>14</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E15" s="66"/>
       <c r="F15" s="66"/>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="81">
+      <c r="A16" s="80">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="81"/>
+      <c r="B16" s="86">
+        <v>15</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E16" s="66"/>
       <c r="F16" s="66"/>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="81">
+      <c r="A17" s="80">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="81"/>
+      <c r="B17" s="87">
+        <v>16</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E17" s="66"/>
       <c r="F17" s="66"/>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="81">
+      <c r="A18" s="80">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="81"/>
+      <c r="B18" s="86">
+        <v>17</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D18" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E18" s="66"/>
       <c r="F18" s="66"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="81">
+      <c r="A19" s="80">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="81"/>
+      <c r="B19" s="87">
+        <v>18</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="81">
+      <c r="A20" s="80">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="81"/>
+      <c r="B20" s="86">
+        <v>19</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="D20" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E20" s="66"/>
       <c r="F20" s="66"/>
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="81">
+      <c r="A21" s="80">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="81"/>
+      <c r="B21" s="87">
+        <v>20</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E21" s="66"/>
       <c r="F21" s="66"/>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="81">
+      <c r="A22" s="80">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="81"/>
+      <c r="B22" s="86">
+        <v>21</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
       <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="81">
+      <c r="A23" s="80">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="81"/>
+      <c r="B23" s="87">
+        <v>22</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E23" s="66"/>
       <c r="F23" s="66"/>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="81">
+      <c r="A24" s="80">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="81"/>
+      <c r="B24" s="86">
+        <v>23</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E24" s="66"/>
       <c r="F24" s="66"/>
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="81">
+      <c r="A25" s="80">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="81"/>
+      <c r="B25" s="87">
+        <v>24</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="81">
+      <c r="A26" s="80">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="81"/>
+      <c r="B26" s="86">
+        <v>25</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>355</v>
+      </c>
+      <c r="D26" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
       <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="81">
+      <c r="A27" s="80">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="81"/>
+      <c r="B27" s="87">
+        <v>26</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="81">
+      <c r="A28" s="80">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="81"/>
+      <c r="B28" s="86">
+        <v>27</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>357</v>
+      </c>
+      <c r="D28" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E28" s="66"/>
       <c r="F28" s="66"/>
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="81">
+      <c r="A29" s="80">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="81"/>
+      <c r="B29" s="87">
+        <v>28</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="D29" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E29" s="66"/>
       <c r="F29" s="66"/>
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="81">
+      <c r="A30" s="80">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="81"/>
+      <c r="B30" s="86">
+        <v>29</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E30" s="66"/>
       <c r="F30" s="66"/>
       <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="81">
+      <c r="A31" s="80">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="81"/>
+      <c r="B31" s="87">
+        <v>30</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="D31" s="88">
+        <v>-0.27385498619047599</v>
+      </c>
       <c r="E31" s="66"/>
       <c r="F31" s="66"/>
       <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="57"/>
       <c r="D32" s="16"/>
       <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="57"/>
       <c r="D33" s="16"/>
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="57"/>
       <c r="D34" s="16"/>
       <c r="G34" s="18"/>
@@ -8002,14 +8026,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -1,35 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\team01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB29E8B-AFAD-4D50-A8CA-D2673A6C07BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
     <sheet name="床位資料表" sheetId="3" r:id="rId2"/>
     <sheet name="宿舍資料表" sheetId="5" r:id="rId3"/>
     <sheet name="學生床位資料表" sheetId="7" r:id="rId4"/>
-    <sheet name="外宿申請表" sheetId="9" r:id="rId5"/>
+    <sheet name="點名資料表" sheetId="13" r:id="rId5"/>
     <sheet name="長期晚歸申請表" sheetId="11" r:id="rId6"/>
-    <sheet name="點名資料表" sheetId="13" r:id="rId7"/>
+    <sheet name="外宿申請表" sheetId="9" r:id="rId7"/>
     <sheet name="人臉資料表" sheetId="15" r:id="rId8"/>
     <sheet name="學生表格(students)" sheetId="2" r:id="rId9"/>
-    <sheet name="宿舍表格(dormitories)" sheetId="6" r:id="rId10"/>
-    <sheet name="床位表格(beds)" sheetId="4" r:id="rId11"/>
+    <sheet name="床位表格(beds)" sheetId="4" r:id="rId10"/>
+    <sheet name="宿舍表格(dormitories)" sheetId="6" r:id="rId11"/>
     <sheet name="學生床位資料表(sbrecords)" sheetId="8" r:id="rId12"/>
     <sheet name="點名表格(rollcalls)" sheetId="14" r:id="rId13"/>
-    <sheet name="外宿表格(leaves)" sheetId="10" r:id="rId14"/>
-    <sheet name="長期晚歸表格(lates)" sheetId="12" r:id="rId15"/>
+    <sheet name="長期晚歸表格(lates)" sheetId="12" r:id="rId14"/>
+    <sheet name="外宿表格(leaves)" sheetId="10" r:id="rId15"/>
     <sheet name="人臉表格(features)" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1266,11 +1280,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="186" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="192" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -1795,20 +1809,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="192" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2112,7 +2126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3178,34 +3192,8 @@
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-    </row>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3213,7 +3201,172 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A3" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A5" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3359,179 +3512,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A5" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="F5" s="70"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -3726,7 +3714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3914,7 +3902,319 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4110,326 +4410,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" style="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -4573,14 +4561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="A32:G34"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5630,7 +5618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5744,7 +5732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5796,7 +5784,7 @@
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1">
       <c r="A2" s="16">
-        <f t="shared" ref="A2:A37" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -6441,7 +6429,879 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A2" s="16">
+        <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C2" s="55">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A3" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C3" s="55">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A4" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C4" s="55">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A5" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C5" s="55">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>4</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A6" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C6" s="55">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>5</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A7" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C7" s="55">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>6</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A8" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C8" s="55">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16">
+        <v>7</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A9" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C9" s="55">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16">
+        <v>8</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A10" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C10" s="55">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16">
+        <v>9</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A11" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C11" s="55">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>10</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C12" s="55">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16">
+        <v>11</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C13" s="55">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>12</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C14" s="57">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>13</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C15" s="57">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16">
+        <v>14</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C16" s="57">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C17" s="57">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16">
+        <v>16</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C18" s="57">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16">
+        <v>17</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C19" s="57">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16">
+        <v>18</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C20" s="57">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16">
+        <v>19</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C21" s="57">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16">
+        <v>20</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="16">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C22" s="57">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>21</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="16">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C23" s="57">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>22</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="16">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C24" s="57">
+        <v>1</v>
+      </c>
+      <c r="D24" s="16">
+        <v>23</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C25" s="57">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16">
+        <v>24</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C26" s="57">
+        <v>1</v>
+      </c>
+      <c r="D26" s="16">
+        <v>25</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C27" s="57">
+        <v>1</v>
+      </c>
+      <c r="D27" s="16">
+        <v>26</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C28" s="57">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16">
+        <v>27</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C29" s="57">
+        <v>1</v>
+      </c>
+      <c r="D29" s="16">
+        <v>28</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="16">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C30" s="57">
+        <v>1</v>
+      </c>
+      <c r="D30" s="16">
+        <v>29</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="17">
+        <v>44847</v>
+      </c>
+      <c r="C31" s="57">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16">
+        <v>30</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A2" s="16">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>6</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="25">
+        <v>1.9791666666666665</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A3" s="16">
+        <f>ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="16">
+        <v>7</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6541,880 +7401,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:Q3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11" style="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="16">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
-        <v>6</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="25">
-        <v>1.9791666666666665</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-    </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A3" s="16">
-        <f>ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="16">
-        <v>7</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="25">
-        <v>0</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:I34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E34" sqref="A32:E34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="16">
-        <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C2" s="55">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16">
-        <v>1</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A3" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B3" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C3" s="55">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16">
-        <v>2</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A4" s="16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C4" s="55">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16">
-        <v>3</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A5" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C5" s="55">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16">
-        <v>4</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A6" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C6" s="55">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16">
-        <v>5</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A7" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C7" s="55">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
-        <v>6</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C8" s="55">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16">
-        <v>7</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C9" s="55">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16">
-        <v>8</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="16">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C10" s="55">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16">
-        <v>9</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C11" s="55">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16">
-        <v>10</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="16">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C12" s="55">
-        <v>1</v>
-      </c>
-      <c r="D12" s="16">
-        <v>11</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="16">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C13" s="55">
-        <v>1</v>
-      </c>
-      <c r="D13" s="16">
-        <v>12</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C14" s="57">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16">
-        <v>13</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C15" s="57">
-        <v>1</v>
-      </c>
-      <c r="D15" s="16">
-        <v>14</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C16" s="57">
-        <v>1</v>
-      </c>
-      <c r="D16" s="16">
-        <v>15</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="16">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C17" s="57">
-        <v>1</v>
-      </c>
-      <c r="D17" s="16">
-        <v>16</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="16">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C18" s="57">
-        <v>1</v>
-      </c>
-      <c r="D18" s="16">
-        <v>17</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="16">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C19" s="57">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16">
-        <v>18</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="16">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C20" s="57">
-        <v>1</v>
-      </c>
-      <c r="D20" s="16">
-        <v>19</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="16">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C21" s="57">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16">
-        <v>20</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="16">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C22" s="57">
-        <v>1</v>
-      </c>
-      <c r="D22" s="16">
-        <v>21</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="16">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C23" s="57">
-        <v>1</v>
-      </c>
-      <c r="D23" s="16">
-        <v>22</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="16">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C24" s="57">
-        <v>1</v>
-      </c>
-      <c r="D24" s="16">
-        <v>23</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="16">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C25" s="57">
-        <v>1</v>
-      </c>
-      <c r="D25" s="16">
-        <v>24</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="16">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C26" s="57">
-        <v>1</v>
-      </c>
-      <c r="D26" s="16">
-        <v>25</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="16">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C27" s="57">
-        <v>1</v>
-      </c>
-      <c r="D27" s="16">
-        <v>26</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="16">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C28" s="57">
-        <v>1</v>
-      </c>
-      <c r="D28" s="16">
-        <v>27</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="16">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C29" s="57">
-        <v>1</v>
-      </c>
-      <c r="D29" s="16">
-        <v>28</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="16">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C30" s="57">
-        <v>1</v>
-      </c>
-      <c r="D30" s="16">
-        <v>29</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="16">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="17">
-        <v>44847</v>
-      </c>
-      <c r="C31" s="57">
-        <v>1</v>
-      </c>
-      <c r="D31" s="16">
-        <v>30</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="工作表1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -8026,7 +8014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>

--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20393"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\team01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LHU\1111Class\wamp64\www\team01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB29E8B-AFAD-4D50-A8CA-D2673A6C07BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036E9FCC-E819-4A79-BF3C-8E19C6FEAD64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
@@ -21,34 +21,23 @@
     <sheet name="長期晚歸申請表" sheetId="11" r:id="rId6"/>
     <sheet name="外宿申請表" sheetId="9" r:id="rId7"/>
     <sheet name="人臉資料表" sheetId="15" r:id="rId8"/>
-    <sheet name="學生表格(students)" sheetId="2" r:id="rId9"/>
-    <sheet name="床位表格(beds)" sheetId="4" r:id="rId10"/>
-    <sheet name="宿舍表格(dormitories)" sheetId="6" r:id="rId11"/>
-    <sheet name="學生床位資料表(sbrecords)" sheetId="8" r:id="rId12"/>
-    <sheet name="點名表格(rollcalls)" sheetId="14" r:id="rId13"/>
-    <sheet name="長期晚歸表格(lates)" sheetId="12" r:id="rId14"/>
-    <sheet name="外宿表格(leaves)" sheetId="10" r:id="rId15"/>
-    <sheet name="人臉表格(features)" sheetId="16" r:id="rId16"/>
+    <sheet name="使用者資料表" sheetId="17" r:id="rId9"/>
+    <sheet name="學生表格(students)" sheetId="2" r:id="rId10"/>
+    <sheet name="床位表格(beds)" sheetId="4" r:id="rId11"/>
+    <sheet name="宿舍表格(dormitories)" sheetId="6" r:id="rId12"/>
+    <sheet name="學生床位資料表(sbrecords)" sheetId="8" r:id="rId13"/>
+    <sheet name="點名表格(rollcalls)" sheetId="14" r:id="rId14"/>
+    <sheet name="長期晚歸表格(lates)" sheetId="12" r:id="rId15"/>
+    <sheet name="外宿表格(leaves)" sheetId="10" r:id="rId16"/>
+    <sheet name="人臉表格(features)" sheetId="16" r:id="rId17"/>
+    <sheet name="使用者表格(users)" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="373">
   <si>
     <t>中文欄位名稱</t>
   </si>
@@ -1147,10 +1136,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>floorhead_check</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>chief_check</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1275,6 +1260,56 @@
   </si>
   <si>
     <t>.\lXF\qZl.jpg</t>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子信箱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱驗證完成時間</t>
+  </si>
+  <si>
+    <t>信箱驗證完成時間</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>令牌</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_verified_at</t>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>remember_token</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1577,7 +1612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1824,6 +1859,12 @@
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3201,6 +3242,249 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A10" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3365,7 +3649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3512,15 +3796,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3713,7 +3997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3901,7 +4185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3909,7 +4193,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4064,7 +4348,7 @@
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>40</v>
@@ -4096,7 +4380,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>177</v>
@@ -4115,7 +4399,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>18</v>
@@ -4131,7 +4415,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
@@ -4213,7 +4497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -4410,7 +4694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -4418,7 +4702,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4473,7 +4757,7 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -4491,10 +4775,10 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>304</v>
@@ -4507,10 +4791,10 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>304</v>
@@ -4552,6 +4836,199 @@
         <v>19</v>
       </c>
       <c r="F7" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8262AA0D-6B70-4BC3-B4BF-09AD83C27792}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5">
+      <c r="A3" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="90" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5">
+      <c r="A10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -7182,13 +7659,13 @@
         <v>34</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G1" s="72" t="s">
         <v>315</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>41</v>
@@ -7308,7 +7785,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7431,10 +7908,10 @@
         <v>81</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E1" s="79" t="s">
         <v>24</v>
@@ -7455,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D2" s="88">
         <v>8.7949999999999996E-4</v>
@@ -7473,7 +7950,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D3" s="88">
         <v>7.9635000000000003E-4</v>
@@ -7491,7 +7968,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D4" s="88">
         <v>-0.33363999999999999</v>
@@ -7509,7 +7986,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D5" s="88">
         <v>6.3299999999999994E-5</v>
@@ -7527,7 +8004,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D6" s="88">
         <v>-2.9310000000000002E-4</v>
@@ -7545,7 +8022,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D7" s="88">
         <v>-0.32168099999999999</v>
@@ -7563,7 +8040,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="88">
         <v>-0.237215913333333</v>
@@ -7581,7 +8058,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D9" s="88">
         <v>-0.27385498619047599</v>
@@ -7599,7 +8076,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D10" s="88">
         <v>6.6836999999999999E-3</v>
@@ -7617,7 +8094,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D11" s="88">
         <v>0.28722238619047602</v>
@@ -7635,7 +8112,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D12" s="88">
         <v>0.56776107238095197</v>
@@ -7653,7 +8130,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D13" s="88">
         <v>0.84829975857142403</v>
@@ -7671,7 +8148,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D14" s="88">
         <v>-0.27385498619047599</v>
@@ -7689,7 +8166,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D15" s="88">
         <v>-0.27385498619047599</v>
@@ -7707,7 +8184,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D16" s="88">
         <v>-0.27385498619047599</v>
@@ -7725,7 +8202,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D17" s="88">
         <v>-0.27385498619047599</v>
@@ -7743,7 +8220,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D18" s="88">
         <v>-0.27385498619047599</v>
@@ -7761,7 +8238,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D19" s="88">
         <v>-0.27385498619047599</v>
@@ -7779,7 +8256,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D20" s="88">
         <v>-0.27385498619047599</v>
@@ -7797,7 +8274,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D21" s="88">
         <v>-0.27385498619047599</v>
@@ -7815,7 +8292,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D22" s="88">
         <v>-0.27385498619047599</v>
@@ -7833,7 +8310,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D23" s="88">
         <v>-0.27385498619047599</v>
@@ -7851,7 +8328,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D24" s="88">
         <v>-0.27385498619047599</v>
@@ -7869,7 +8346,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D25" s="88">
         <v>-0.27385498619047599</v>
@@ -7887,7 +8364,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D26" s="88">
         <v>-0.27385498619047599</v>
@@ -7905,7 +8382,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D27" s="88">
         <v>-0.27385498619047599</v>
@@ -7923,7 +8400,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D28" s="88">
         <v>-0.27385498619047599</v>
@@ -7941,7 +8418,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D29" s="88">
         <v>-0.27385498619047599</v>
@@ -7959,7 +8436,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="82" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D30" s="88">
         <v>-0.27385498619047599</v>
@@ -7977,7 +8454,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D31" s="88">
         <v>-0.27385498619047599</v>
@@ -8014,241 +8491,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28274BE4-8E5D-4735-A260-307D768C4F6C}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A12" s="8" t="s">
+    <row r="1" spans="1:9" ht="16.5">
+      <c r="A1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="I1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="8"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LHU\1111Class\wamp64\www\team01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036E9FCC-E819-4A79-BF3C-8E19C6FEAD64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D780DD-19EC-4D08-B589-9CBC69DD87AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="點名資料表" sheetId="13" r:id="rId5"/>
     <sheet name="長期晚歸申請表" sheetId="11" r:id="rId6"/>
     <sheet name="外宿申請表" sheetId="9" r:id="rId7"/>
-    <sheet name="人臉資料表" sheetId="15" r:id="rId8"/>
+    <sheet name="照片資料表" sheetId="20" r:id="rId8"/>
     <sheet name="使用者資料表" sheetId="17" r:id="rId9"/>
     <sheet name="學生表格(students)" sheetId="2" r:id="rId10"/>
     <sheet name="床位表格(beds)" sheetId="4" r:id="rId11"/>
@@ -29,7 +29,7 @@
     <sheet name="點名表格(rollcalls)" sheetId="14" r:id="rId14"/>
     <sheet name="長期晚歸表格(lates)" sheetId="12" r:id="rId15"/>
     <sheet name="外宿表格(leaves)" sheetId="10" r:id="rId16"/>
-    <sheet name="人臉表格(features)" sheetId="16" r:id="rId17"/>
+    <sheet name="照片表格(phohos)" sheetId="16" r:id="rId17"/>
     <sheet name="使用者表格(users)" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="393">
   <si>
     <t>中文欄位名稱</t>
   </si>
@@ -1040,10 +1040,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>4F</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>responsible_floor</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1152,116 +1148,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>特徵值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片路徑</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>學生編號</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>feature</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>.\mfa\SZc.jpg</t>
-  </si>
-  <si>
-    <t>.\APw\hIs.jpg</t>
-  </si>
-  <si>
-    <t>.\NeK\NVc.jpg</t>
-  </si>
-  <si>
-    <t>.\lOb\BGt.jpg</t>
-  </si>
-  <si>
-    <t>.\SHn\jPp.jpg</t>
-  </si>
-  <si>
-    <t>.\qSk\GjY.jpg</t>
-  </si>
-  <si>
-    <t>.\gSq\PAr.jpg</t>
-  </si>
-  <si>
-    <t>.\IQA\qus.jpg</t>
-  </si>
-  <si>
-    <t>.\GLo\qfn.jpg</t>
-  </si>
-  <si>
-    <t>.\CNe\LmR.jpg</t>
-  </si>
-  <si>
-    <t>.\Vxn\irs.jpg</t>
-  </si>
-  <si>
-    <t>.\anu\XWa.jpg</t>
-  </si>
-  <si>
-    <t>.\xlo\wgV.jpg</t>
-  </si>
-  <si>
-    <t>.\goH\oGD.jpg</t>
-  </si>
-  <si>
-    <t>.\UBo\ZQO.jpg</t>
-  </si>
-  <si>
-    <t>.\syc\iTm.jpg</t>
-  </si>
-  <si>
-    <t>.\hCH\hHK.jpg</t>
-  </si>
-  <si>
-    <t>.\WSi\iYx.jpg</t>
-  </si>
-  <si>
-    <t>.\Pia\bwY.jpg</t>
-  </si>
-  <si>
-    <t>.\hAg\Vxo.jpg</t>
-  </si>
-  <si>
-    <t>.\tOP\pex.jpg</t>
-  </si>
-  <si>
-    <t>.\Lim\aSp.jpg</t>
-  </si>
-  <si>
-    <t>.\DOI\DuW.jpg</t>
-  </si>
-  <si>
-    <t>.\Eje\ZYv.jpg</t>
-  </si>
-  <si>
-    <t>.\Eao\EzL.jpg</t>
-  </si>
-  <si>
-    <t>.\izN\tvR.jpg</t>
-  </si>
-  <si>
-    <t>.\uTo\zpg.jpg</t>
-  </si>
-  <si>
-    <t>.\Dvt\PLr.jpg</t>
-  </si>
-  <si>
-    <t>.\mpQ\UDe.jpg</t>
-  </si>
-  <si>
-    <t>.\lXF\qZl.jpg</t>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1309,6 +1199,193 @@
   </si>
   <si>
     <t>身分</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>superadmin</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>housermaster</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>chief</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>floorhead</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統後台管理員</t>
+  </si>
+  <si>
+    <t>宿舍行政</t>
+  </si>
+  <si>
+    <t>宿舍輔導員</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>總樓長</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>樓長</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿生</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi1u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi2u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi3u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi4u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi5u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi6u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi7u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi8u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi9u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi10u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi11u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi12u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi13u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi14u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi15u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi16u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi17u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi18u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi19u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi20u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi21u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi22u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi23u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi24u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi25u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi26u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi27u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi28u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi29u</t>
+  </si>
+  <si>
+    <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi30u</t>
+  </si>
+  <si>
+    <t>照片辨識結果</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>identify</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人照片路徑</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile_file_path</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(190)</t>
+  </si>
+  <si>
+    <t>上傳照片路徑</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_file_path</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>webcam_file_path</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍攝照片路徑</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生編號(外鍵)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1316,12 +1393,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1439,6 +1514,12 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1470,7 +1551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1596,15 +1677,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
         <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,7 +1708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1814,57 +1910,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2171,1055 +2234,1089 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="L1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="M1" s="67" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1">
       <c r="A2" s="16">
         <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="65"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="65"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M2" s="65"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1">
       <c r="A3" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="65"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="65"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M3" s="65"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1">
       <c r="A4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="65"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="65"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M4" s="65"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1">
       <c r="A5" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="65"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="65"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M5" s="65"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1">
       <c r="A6" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="65"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="65"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M6" s="65"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1">
       <c r="A7" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="H7" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="I7" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="J7" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="65"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="65"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M7" s="65"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1">
       <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="G8" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="H8" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="I8" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="J8" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="65"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="65"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M8" s="65"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1">
       <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="I9" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="J9" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="65"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="65"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M9" s="65"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="G10" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="I10" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="J10" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="65"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="65"/>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M10" s="65"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1">
       <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="H11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="I11" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="J11" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="65"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="65"/>
-    </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M11" s="65"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1">
       <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="D12" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="H12" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="I12" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="J12" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="65"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="65"/>
-    </row>
-    <row r="13" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M12" s="65"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1">
       <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="G13" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="H13" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="J13" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="65"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="65"/>
-    </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M13" s="65"/>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="G14" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="H14" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="I14" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="J14" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="65"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="65"/>
-    </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M14" s="65"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1">
       <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="G15" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="I15" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="J15" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="65"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="65"/>
-    </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M15" s="65"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1">
       <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="F16" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="G16" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="H16" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="I16" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="J16" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="65"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="65"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M16" s="65"/>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="A17" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="G17" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="H17" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="I17" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="J17" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="65"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="65"/>
-    </row>
-    <row r="18" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M17" s="65"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="F18" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="G18" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="H18" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="I18" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="J18" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="65"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="65"/>
-    </row>
-    <row r="19" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M18" s="65"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1">
       <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="G19" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="H19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="I19" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="J19" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="65"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="65"/>
-    </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M19" s="65"/>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1">
       <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="F20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="G20" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="H20" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="I20" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="J20" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="65"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="65"/>
-    </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M20" s="65"/>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1">
       <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="G21" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="H21" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="I21" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="J21" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="65"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="65"/>
-    </row>
-    <row r="22" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M21" s="65"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1">
       <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="F22" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="G22" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="H22" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="I22" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="J22" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="65"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="65"/>
-    </row>
-    <row r="23" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M22" s="65"/>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1">
       <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="F23" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="G23" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="H23" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="I23" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="J23" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="65"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="65"/>
-    </row>
-    <row r="24" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M23" s="65"/>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1">
       <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="G24" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="H24" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="I24" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="J24" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="65"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="65"/>
-    </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M24" s="65"/>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1">
       <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="D25" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="E25" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="F25" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="G25" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="H25" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="I25" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="J25" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="65"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="65"/>
-    </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M25" s="65"/>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1">
       <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="G26" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="H26" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="I26" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="J26" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="65"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="65"/>
-    </row>
-    <row r="27" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M26" s="65"/>
+    </row>
+    <row r="27" spans="1:13" ht="18.75" customHeight="1">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="F27" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="G27" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="H27" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="I27" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="J27" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="65"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="65"/>
-    </row>
-    <row r="28" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M27" s="65"/>
+    </row>
+    <row r="28" spans="1:13" ht="18.75" customHeight="1">
       <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="F28" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="G28" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="H28" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="I28" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="J28" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="65"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="65"/>
-    </row>
-    <row r="29" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M28" s="65"/>
+    </row>
+    <row r="29" spans="1:13" ht="18.75" customHeight="1">
       <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="E29" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="F29" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="G29" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="H29" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="I29" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="J29" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="65"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="65"/>
-    </row>
-    <row r="30" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M29" s="65"/>
+    </row>
+    <row r="30" spans="1:13" ht="18.75" customHeight="1">
       <c r="A30" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="F30" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="G30" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="H30" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="I30" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="J30" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="65"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="65"/>
-    </row>
-    <row r="31" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M30" s="65"/>
+    </row>
+    <row r="31" spans="1:13" ht="18.75" customHeight="1">
       <c r="A31" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="E31" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="F31" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="G31" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="H31" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="I31" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="J31" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="65"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="65"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="65"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -3232,6 +3329,7 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
+      <c r="M32"/>
     </row>
     <row r="33" customFormat="1"/>
     <row r="34" customFormat="1"/>
@@ -3246,16 +3344,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
@@ -3286,7 +3384,7 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3303,32 +3401,32 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7"/>
+      <c r="A3" s="78" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3336,10 +3434,10 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>36</v>
@@ -3352,47 +3450,47 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>112</v>
+      <c r="A8" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
@@ -3400,26 +3498,26 @@
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>36</v>
@@ -3432,42 +3530,42 @@
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>26</v>
@@ -3477,6 +3575,22 @@
         <v>19</v>
       </c>
       <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -3581,17 +3695,17 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="68" t="s">
         <v>307</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>308</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F5" s="70"/>
     </row>
@@ -3657,7 +3771,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3715,7 +3829,7 @@
         <v>83</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>36</v>
@@ -3744,7 +3858,7 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>39</v>
@@ -3930,7 +4044,7 @@
         <v>173</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" s="62" t="s">
         <v>174</v>
@@ -3948,14 +4062,14 @@
         <v>300</v>
       </c>
       <c r="B8" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>303</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>304</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F8" s="62"/>
     </row>
@@ -4002,10 +4116,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4066,7 +4180,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
@@ -4112,7 +4226,7 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -4147,27 +4261,27 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="A8" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -4177,6 +4291,22 @@
         <v>19</v>
       </c>
       <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -4193,7 +4323,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4332,7 +4462,7 @@
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>39</v>
@@ -4348,7 +4478,7 @@
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>40</v>
@@ -4380,7 +4510,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>177</v>
@@ -4399,7 +4529,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>18</v>
@@ -4415,7 +4545,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
@@ -4431,7 +4561,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>18</v>
@@ -4447,7 +4577,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
@@ -4629,7 +4759,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
@@ -4702,7 +4832,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4757,7 +4887,7 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -4775,13 +4905,13 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>326</v>
+        <v>388</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>329</v>
+        <v>389</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
@@ -4791,13 +4921,13 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>328</v>
+        <v>390</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
@@ -4904,13 +5034,13 @@
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="68" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="69" t="s">
@@ -4919,14 +5049,14 @@
       <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="90" t="s">
-        <v>372</v>
+      <c r="A4" s="74" t="s">
+        <v>337</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="69" t="s">
@@ -4936,13 +5066,13 @@
     </row>
     <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="5" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="69" t="s">
@@ -4952,10 +5082,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="5" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>26</v>
@@ -4968,13 +5098,13 @@
     </row>
     <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="5" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
@@ -4984,13 +5114,13 @@
     </row>
     <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="5" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
@@ -5093,7 +5223,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>103</v>
@@ -5113,7 +5243,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>103</v>
@@ -5133,7 +5263,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>103</v>
@@ -5153,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>103</v>
@@ -5173,7 +5303,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>103</v>
@@ -5193,7 +5323,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>103</v>
@@ -5213,7 +5343,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>103</v>
@@ -5233,7 +5363,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>103</v>
@@ -5253,7 +5383,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>103</v>
@@ -5273,7 +5403,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>103</v>
@@ -5293,7 +5423,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>103</v>
@@ -5313,7 +5443,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>103</v>
@@ -5333,7 +5463,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>103</v>
@@ -5353,7 +5483,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>103</v>
@@ -5373,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>103</v>
@@ -5393,7 +5523,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>103</v>
@@ -5413,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>103</v>
@@ -5433,7 +5563,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>103</v>
@@ -5453,7 +5583,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>103</v>
@@ -5473,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>103</v>
@@ -5493,7 +5623,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>103</v>
@@ -5513,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>103</v>
@@ -5533,7 +5663,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>103</v>
@@ -5553,7 +5683,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>103</v>
@@ -5573,7 +5703,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>103</v>
@@ -5593,7 +5723,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>103</v>
@@ -5613,7 +5743,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>103</v>
@@ -5633,7 +5763,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>103</v>
@@ -5653,7 +5783,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>103</v>
@@ -5673,7 +5803,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>103</v>
@@ -6102,7 +6232,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6125,7 +6255,7 @@
         <v>85</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>24</v>
@@ -6216,7 +6346,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6276,12 +6406,8 @@
       <c r="E2" s="16">
         <v>7</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>301</v>
-      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
@@ -6910,10 +7036,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6924,10 +7050,11 @@
     <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -6937,7 +7064,7 @@
       <c r="C1" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="76" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -6949,14 +7076,17 @@
       <c r="G1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
       <c r="A2" s="16">
         <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
         <v>1</v>
@@ -6975,10 +7105,13 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
       <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1">
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1">
       <c r="A3" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6997,10 +7130,13 @@
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
       <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7019,10 +7155,13 @@
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
       <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7041,10 +7180,13 @@
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
       <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1">
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7063,10 +7205,13 @@
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
       <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7085,10 +7230,13 @@
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
       <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
       <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7107,10 +7255,13 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
       <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1">
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
       <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7129,10 +7280,13 @@
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
       <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1">
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7151,10 +7305,13 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
       <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1">
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1">
       <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7173,10 +7330,13 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
       <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7195,8 +7355,11 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7215,8 +7378,11 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7235,8 +7401,11 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7255,8 +7424,11 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7275,8 +7447,11 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7295,8 +7470,11 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7315,8 +7493,11 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7335,8 +7516,11 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7355,8 +7539,11 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7375,8 +7562,11 @@
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7395,8 +7585,11 @@
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="H22" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7415,8 +7608,11 @@
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="H23" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7435,8 +7631,11 @@
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="H24" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7455,8 +7654,11 @@
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="H25" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7475,8 +7677,11 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7495,8 +7700,11 @@
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="H27" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7515,8 +7723,11 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7535,8 +7746,11 @@
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7555,8 +7769,11 @@
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="H30" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7575,8 +7792,11 @@
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="10"/>
@@ -7586,8 +7806,9 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="10"/>
@@ -7597,8 +7818,9 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="10"/>
@@ -7608,6 +7830,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
+      <c r="J34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -7623,7 +7846,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7659,13 +7882,13 @@
         <v>34</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G1" s="72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>41</v>
@@ -7879,610 +8102,554 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="工作表1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452EAE41-8944-4A79-AAF9-0FD60025B9B0}">
+  <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="16">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
         <v>6</v>
       </c>
-      <c r="B1" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>326</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>325</v>
-      </c>
-      <c r="E1" s="79" t="s">
+      <c r="C2" s="75" t="str">
+        <f>"storage/uploads/0326/"&amp;B2&amp;"/"&amp;B2&amp;".jpg"</f>
+        <v>storage/uploads/0326/6/6.jpg</v>
+      </c>
+      <c r="D2" s="75" t="str">
+        <f>"storage/webcams/0326/"&amp;B2&amp;"/"&amp;B2&amp;".jpg"</f>
+        <v>storage/webcams/0326/6/6.jpg</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A3" s="16">
+        <f>ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="16">
+        <v>3</v>
+      </c>
+      <c r="C3" s="75" t="str">
+        <f t="shared" ref="C3:D31" si="0">"storage/uploads/0326/"&amp;B3&amp;"/"&amp;B3&amp;".jpg"</f>
+        <v>storage/uploads/0326/3/3.jpg</v>
+      </c>
+      <c r="D3" s="75" t="str">
+        <f t="shared" ref="D3:D31" si="1">"storage/webcams/0326/"&amp;B3&amp;"/"&amp;B3&amp;".jpg"</f>
+        <v>storage/webcams/0326/3/3.jpg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="16">
+        <f t="shared" ref="A4:A30" si="2">ROW()-1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/1/1.jpg</v>
+      </c>
+      <c r="D4" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/1/1.jpg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
+        <v>4</v>
+      </c>
+      <c r="C5" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/4/4.jpg</v>
+      </c>
+      <c r="D5" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/4/4.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2</v>
+      </c>
+      <c r="C6" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/2/2.jpg</v>
+      </c>
+      <c r="D6" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/2/2.jpg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="16">
+        <v>8</v>
+      </c>
+      <c r="C7" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/8/8.jpg</v>
+      </c>
+      <c r="D7" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/8/8.jpg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="16">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="16">
+        <v>9</v>
+      </c>
+      <c r="C8" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/9/9.jpg</v>
+      </c>
+      <c r="D8" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/9/9.jpg</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="16">
+        <v>7</v>
+      </c>
+      <c r="C9" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/7/7.jpg</v>
+      </c>
+      <c r="D9" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/7/7.jpg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="16">
+        <v>11</v>
+      </c>
+      <c r="C10" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/11/11.jpg</v>
+      </c>
+      <c r="D10" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/11/11.jpg</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="16">
+        <v>10</v>
+      </c>
+      <c r="C11" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/10/10.jpg</v>
+      </c>
+      <c r="D11" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/10/10.jpg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="16">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="16">
+        <v>12</v>
+      </c>
+      <c r="C12" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/12/12.jpg</v>
+      </c>
+      <c r="D12" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/12/12.jpg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="16">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="16">
+        <v>13</v>
+      </c>
+      <c r="C13" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/13/13.jpg</v>
+      </c>
+      <c r="D13" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/13/13.jpg</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="16">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="16">
+        <v>14</v>
+      </c>
+      <c r="C14" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/14/14.jpg</v>
+      </c>
+      <c r="D14" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/14/14.jpg</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="16">
+        <v>15</v>
+      </c>
+      <c r="C15" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/15/15.jpg</v>
+      </c>
+      <c r="D15" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/15/15.jpg</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="16">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/16/16.jpg</v>
+      </c>
+      <c r="D16" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/16/16.jpg</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="16">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="16">
+        <v>18</v>
+      </c>
+      <c r="C17" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/18/18.jpg</v>
+      </c>
+      <c r="D17" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/18/18.jpg</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="16">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="16">
+        <v>19</v>
+      </c>
+      <c r="C18" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/19/19.jpg</v>
+      </c>
+      <c r="D18" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/19/19.jpg</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="16">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="16">
+        <v>20</v>
+      </c>
+      <c r="C19" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/20/20.jpg</v>
+      </c>
+      <c r="D19" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/20/20.jpg</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="16">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="16">
+        <v>17</v>
+      </c>
+      <c r="C20" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/17/17.jpg</v>
+      </c>
+      <c r="D20" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/17/17.jpg</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="16">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="16">
+        <v>26</v>
+      </c>
+      <c r="C21" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/26/26.jpg</v>
+      </c>
+      <c r="D21" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/26/26.jpg</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="16">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="16">
+        <v>21</v>
+      </c>
+      <c r="C22" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/21/21.jpg</v>
+      </c>
+      <c r="D22" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/21/21.jpg</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="16">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="16">
+        <v>23</v>
+      </c>
+      <c r="C23" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/23/23.jpg</v>
+      </c>
+      <c r="D23" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/23/23.jpg</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="16">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="16">
+        <v>22</v>
+      </c>
+      <c r="C24" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/22/22.jpg</v>
+      </c>
+      <c r="D24" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/22/22.jpg</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="16">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="B25" s="16">
+        <v>24</v>
+      </c>
+      <c r="C25" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/24/24.jpg</v>
+      </c>
+      <c r="D25" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/24/24.jpg</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="16">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="16">
+        <v>25</v>
+      </c>
+      <c r="C26" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/25/25.jpg</v>
+      </c>
+      <c r="D26" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/25/25.jpg</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="16">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="16">
         <v>27</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="73"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A2" s="80">
+      <c r="C27" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/27/27.jpg</v>
+      </c>
+      <c r="D27" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/27/27.jpg</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="16">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="16">
+        <v>28</v>
+      </c>
+      <c r="C28" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/28/28.jpg</v>
+      </c>
+      <c r="D28" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/28/28.jpg</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="16">
+        <v>29</v>
+      </c>
+      <c r="C29" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/29/29.jpg</v>
+      </c>
+      <c r="D29" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/29/29.jpg</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="16">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="16">
+        <v>30</v>
+      </c>
+      <c r="C30" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/30/30.jpg</v>
+      </c>
+      <c r="D30" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/30/30.jpg</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="16">
         <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="86">
-        <v>1</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="88">
-        <v>8.7949999999999996E-4</v>
-      </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A3" s="80">
-        <f t="shared" ref="A3:A31" si="0">ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="87">
-        <v>2</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>331</v>
-      </c>
-      <c r="D3" s="88">
-        <v>7.9635000000000003E-4</v>
-      </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A4" s="80">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="86">
-        <v>3</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>332</v>
-      </c>
-      <c r="D4" s="88">
-        <v>-0.33363999999999999</v>
-      </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A5" s="80">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="87">
-        <v>4</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="88">
-        <v>6.3299999999999994E-5</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A6" s="80">
-        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="86">
-        <v>5</v>
-      </c>
-      <c r="C6" s="81" t="s">
-        <v>334</v>
-      </c>
-      <c r="D6" s="88">
-        <v>-2.9310000000000002E-4</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A7" s="80">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="87">
-        <v>6</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="D7" s="88">
-        <v>-0.32168099999999999</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="80">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="86">
-        <v>7</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>336</v>
-      </c>
-      <c r="D8" s="88">
-        <v>-0.237215913333333</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="80">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="87">
-        <v>8</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>337</v>
-      </c>
-      <c r="D9" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="80">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="86">
-        <v>9</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>338</v>
-      </c>
-      <c r="D10" s="88">
-        <v>6.6836999999999999E-3</v>
-      </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="80">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="87">
-        <v>10</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>339</v>
-      </c>
-      <c r="D11" s="88">
-        <v>0.28722238619047602</v>
-      </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="80">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="86">
-        <v>11</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>340</v>
-      </c>
-      <c r="D12" s="88">
-        <v>0.56776107238095197</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="80">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="87">
-        <v>12</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="D13" s="88">
-        <v>0.84829975857142403</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="80">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="86">
-        <v>13</v>
-      </c>
-      <c r="C14" s="82" t="s">
-        <v>342</v>
-      </c>
-      <c r="D14" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="80">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="87">
-        <v>14</v>
-      </c>
-      <c r="C15" s="82" t="s">
-        <v>343</v>
-      </c>
-      <c r="D15" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="80">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="86">
-        <v>15</v>
-      </c>
-      <c r="C16" s="82" t="s">
-        <v>344</v>
-      </c>
-      <c r="D16" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="80">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="87">
-        <v>16</v>
-      </c>
-      <c r="C17" s="82" t="s">
-        <v>345</v>
-      </c>
-      <c r="D17" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="80">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="86">
-        <v>17</v>
-      </c>
-      <c r="C18" s="82" t="s">
-        <v>346</v>
-      </c>
-      <c r="D18" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="80">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="87">
-        <v>18</v>
-      </c>
-      <c r="C19" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="D19" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="80">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="86">
-        <v>19</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="D20" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="80">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="87">
-        <v>20</v>
-      </c>
-      <c r="C21" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="D21" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="80">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="86">
-        <v>21</v>
-      </c>
-      <c r="C22" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="D22" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="80">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="87">
-        <v>22</v>
-      </c>
-      <c r="C23" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="D23" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="80">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="86">
-        <v>23</v>
-      </c>
-      <c r="C24" s="82" t="s">
-        <v>352</v>
-      </c>
-      <c r="D24" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="80">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="87">
-        <v>24</v>
-      </c>
-      <c r="C25" s="82" t="s">
-        <v>353</v>
-      </c>
-      <c r="D25" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="80">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="86">
-        <v>25</v>
-      </c>
-      <c r="C26" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="D26" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="80">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="87">
-        <v>26</v>
-      </c>
-      <c r="C27" s="82" t="s">
-        <v>355</v>
-      </c>
-      <c r="D27" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="80">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="86">
-        <v>27</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>356</v>
-      </c>
-      <c r="D28" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="80">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="87">
-        <v>28</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>357</v>
-      </c>
-      <c r="D29" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="80">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="86">
-        <v>29</v>
-      </c>
-      <c r="C30" s="82" t="s">
-        <v>358</v>
-      </c>
-      <c r="D30" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="80">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="87">
-        <v>30</v>
-      </c>
-      <c r="C31" s="82" t="s">
-        <v>359</v>
-      </c>
-      <c r="D31" s="88">
-        <v>-0.27385498619047599</v>
-      </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="16"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="16"/>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="16"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="16"/>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="16"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="16"/>
-      <c r="G34" s="18"/>
+      <c r="C31" s="75" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/5/5.jpg</v>
+      </c>
+      <c r="D31" s="75" t="str">
+        <f t="shared" si="1"/>
+        <v>storage/webcams/0326/5/5.jpg</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -8492,19 +8659,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28274BE4-8E5D-4735-A260-307D768C4F6C}">
-  <dimension ref="A1:I3"/>
+  <sheetPr codeName="工作表1"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8512,23 +8682,23 @@
       <c r="A1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="89" t="s">
-        <v>360</v>
+      <c r="B1" s="73" t="s">
+        <v>325</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>24</v>
@@ -8538,26 +8708,591 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="16">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="18" t="str">
+        <f>C2&amp;"@gm.lhu.edu.tw"</f>
+        <v>user@gm.lhu.edu.tw</v>
+      </c>
       <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="F2" s="18" t="s">
+        <v>351</v>
+      </c>
       <c r="G2" s="18"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="A3" s="16">
+        <f t="shared" ref="A3:A30" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="18" t="str">
+        <f>C3&amp;"@gm.lhu.edu.tw"</f>
+        <v>superadmin@gm.lhu.edu.tw</v>
+      </c>
       <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="F3" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="G3" s="18"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="18" t="str">
+        <f t="shared" ref="D4:D8" si="1">C4&amp;"@gm.lhu.edu.tw"</f>
+        <v>admin@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>housermaster@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>chief@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>floorhead@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="43" t="str">
+        <f>學生資料表!C2&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1094162012@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="43" t="str">
+        <f>學生資料表!C3&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1094182042@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" s="43" t="str">
+        <f>學生資料表!C4&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1094181008@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="43" t="str">
+        <f>學生資料表!C5&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1094181004@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" s="43" t="str">
+        <f>學生資料表!C6&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1094181045@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="43" t="str">
+        <f>學生資料表!C7&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1094181086@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="43" t="str">
+        <f>學生資料表!C8&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1094181127@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="43" t="str">
+        <f>學生資料表!C9&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1094181168@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" s="43" t="str">
+        <f>學生資料表!C10&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1094181209@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17" s="43" t="str">
+        <f>學生資料表!C11&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1094181250@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="43" t="str">
+        <f>學生資料表!C12&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1114162716@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" s="43" t="str">
+        <f>學生資料表!C13&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1114161029@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="43" t="str">
+        <f>學生資料表!C14&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1114162715@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D21" s="43" t="str">
+        <f>學生資料表!C15&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1114181057@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="16">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D22" s="43" t="str">
+        <f>學生資料表!C16&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1104171004@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="16">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" s="43" t="str">
+        <f>學生資料表!C17&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1104423001@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="16">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" s="43" t="str">
+        <f>學生資料表!C18&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1104171007@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" s="43" t="str">
+        <f>學生資料表!C19&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1104171003@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" s="43" t="str">
+        <f>學生資料表!C20&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1114111012@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="43" t="str">
+        <f>學生資料表!C21&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1114111049@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" s="43" t="str">
+        <f>學生資料表!C22&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1114112006@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="43" t="str">
+        <f>學生資料表!C23&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1114112050@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="16">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" s="43" t="str">
+        <f>學生資料表!C24&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1114181050@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="16">
+        <f>ROW()-1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="43" t="str">
+        <f>學生資料表!C25&amp;"@gm.lhu.edu.tw"</f>
+        <v>D1114161706@gm.lhu.edu.tw</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="18"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="18"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LHU\1111Class\wamp64\www\team01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D780DD-19EC-4D08-B589-9CBC69DD87AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BE285D-0A8C-4DF6-84EA-0A31A3866DBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="398">
   <si>
     <t>中文欄位名稱</t>
   </si>
@@ -1388,13 +1388,34 @@
     <t>學生編號(外鍵)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1708,7 +1729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1929,6 +1950,16 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4635,7 +4666,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4829,10 +4860,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4885,46 +4916,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" s="83" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A3" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>303</v>
@@ -4936,27 +4967,27 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="8"/>
+      <c r="A6" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
@@ -4966,6 +4997,22 @@
         <v>19</v>
       </c>
       <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -8106,547 +8153,641 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="80" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="16">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C2" s="16">
         <v>6</v>
       </c>
-      <c r="C2" s="75" t="str">
-        <f>"storage/uploads/0326/"&amp;B2&amp;"/"&amp;B2&amp;".jpg"</f>
+      <c r="D2" s="75" t="str">
+        <f>"storage/uploads/0326/"&amp;C2&amp;"/"&amp;C2&amp;".jpg"</f>
         <v>storage/uploads/0326/6/6.jpg</v>
       </c>
-      <c r="D2" s="75" t="str">
-        <f>"storage/webcams/0326/"&amp;B2&amp;"/"&amp;B2&amp;".jpg"</f>
+      <c r="E2" s="75" t="str">
+        <f>"storage/webcams/0326/"&amp;C2&amp;"/"&amp;C2&amp;".jpg"</f>
         <v>storage/webcams/0326/6/6.jpg</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
       <c r="A3" s="16">
         <f>ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C3" s="16">
         <v>3</v>
       </c>
-      <c r="C3" s="75" t="str">
-        <f t="shared" ref="C3:D31" si="0">"storage/uploads/0326/"&amp;B3&amp;"/"&amp;B3&amp;".jpg"</f>
+      <c r="D3" s="75" t="str">
+        <f t="shared" ref="D3:D31" si="0">"storage/uploads/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
         <v>storage/uploads/0326/3/3.jpg</v>
       </c>
-      <c r="D3" s="75" t="str">
-        <f t="shared" ref="D3:D31" si="1">"storage/webcams/0326/"&amp;B3&amp;"/"&amp;B3&amp;".jpg"</f>
+      <c r="E3" s="75" t="str">
+        <f t="shared" ref="E3:E31" si="1">"storage/webcams/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
         <v>storage/webcams/0326/3/3.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="16">
         <f t="shared" ref="A4:A30" si="2">ROW()-1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="75" t="str">
+      <c r="B4" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/1/1.jpg</v>
       </c>
-      <c r="D4" s="75" t="str">
+      <c r="E4" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/1/1.jpg</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="16">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C5" s="16">
         <v>4</v>
       </c>
-      <c r="C5" s="75" t="str">
+      <c r="D5" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/4/4.jpg</v>
       </c>
-      <c r="D5" s="75" t="str">
+      <c r="E5" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/4/4.jpg</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="16">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="75" t="str">
+      <c r="D6" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/2/2.jpg</v>
       </c>
-      <c r="D6" s="75" t="str">
+      <c r="E6" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/2/2.jpg</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="16">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C7" s="16">
         <v>8</v>
       </c>
-      <c r="C7" s="75" t="str">
+      <c r="D7" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/8/8.jpg</v>
       </c>
-      <c r="D7" s="75" t="str">
+      <c r="E7" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/8/8.jpg</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="16">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C8" s="16">
         <v>9</v>
       </c>
-      <c r="C8" s="75" t="str">
+      <c r="D8" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/9/9.jpg</v>
       </c>
-      <c r="D8" s="75" t="str">
+      <c r="E8" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/9/9.jpg</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="16">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C9" s="16">
         <v>7</v>
       </c>
-      <c r="C9" s="75" t="str">
+      <c r="D9" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/7/7.jpg</v>
       </c>
-      <c r="D9" s="75" t="str">
+      <c r="E9" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/7/7.jpg</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="16">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C10" s="16">
         <v>11</v>
       </c>
-      <c r="C10" s="75" t="str">
+      <c r="D10" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/11/11.jpg</v>
       </c>
-      <c r="D10" s="75" t="str">
+      <c r="E10" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/11/11.jpg</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="16">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C11" s="16">
         <v>10</v>
       </c>
-      <c r="C11" s="75" t="str">
+      <c r="D11" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/10/10.jpg</v>
       </c>
-      <c r="D11" s="75" t="str">
+      <c r="E11" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/10/10.jpg</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="16">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C12" s="16">
         <v>12</v>
       </c>
-      <c r="C12" s="75" t="str">
+      <c r="D12" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/12/12.jpg</v>
       </c>
-      <c r="D12" s="75" t="str">
+      <c r="E12" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/12/12.jpg</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="16">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C13" s="16">
         <v>13</v>
       </c>
-      <c r="C13" s="75" t="str">
+      <c r="D13" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/13/13.jpg</v>
       </c>
-      <c r="D13" s="75" t="str">
+      <c r="E13" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/13/13.jpg</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="16">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C14" s="16">
         <v>14</v>
       </c>
-      <c r="C14" s="75" t="str">
+      <c r="D14" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/14/14.jpg</v>
       </c>
-      <c r="D14" s="75" t="str">
+      <c r="E14" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/14/14.jpg</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="16">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C15" s="16">
         <v>15</v>
       </c>
-      <c r="C15" s="75" t="str">
+      <c r="D15" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/15/15.jpg</v>
       </c>
-      <c r="D15" s="75" t="str">
+      <c r="E15" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/15/15.jpg</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="16">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C16" s="16">
         <v>16</v>
       </c>
-      <c r="C16" s="75" t="str">
+      <c r="D16" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/16/16.jpg</v>
       </c>
-      <c r="D16" s="75" t="str">
+      <c r="E16" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/16/16.jpg</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="16">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C17" s="16">
         <v>18</v>
       </c>
-      <c r="C17" s="75" t="str">
+      <c r="D17" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/18/18.jpg</v>
       </c>
-      <c r="D17" s="75" t="str">
+      <c r="E17" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/18/18.jpg</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="16">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C18" s="16">
         <v>19</v>
       </c>
-      <c r="C18" s="75" t="str">
+      <c r="D18" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/19/19.jpg</v>
       </c>
-      <c r="D18" s="75" t="str">
+      <c r="E18" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/19/19.jpg</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="16">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C19" s="16">
         <v>20</v>
       </c>
-      <c r="C19" s="75" t="str">
+      <c r="D19" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/20/20.jpg</v>
       </c>
-      <c r="D19" s="75" t="str">
+      <c r="E19" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/20/20.jpg</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="16">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C20" s="16">
         <v>17</v>
       </c>
-      <c r="C20" s="75" t="str">
+      <c r="D20" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/17/17.jpg</v>
       </c>
-      <c r="D20" s="75" t="str">
+      <c r="E20" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/17/17.jpg</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="16">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C21" s="16">
         <v>26</v>
       </c>
-      <c r="C21" s="75" t="str">
+      <c r="D21" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/26/26.jpg</v>
       </c>
-      <c r="D21" s="75" t="str">
+      <c r="E21" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/26/26.jpg</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="16">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C22" s="16">
         <v>21</v>
       </c>
-      <c r="C22" s="75" t="str">
+      <c r="D22" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/21/21.jpg</v>
       </c>
-      <c r="D22" s="75" t="str">
+      <c r="E22" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/21/21.jpg</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="16">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C23" s="16">
         <v>23</v>
       </c>
-      <c r="C23" s="75" t="str">
+      <c r="D23" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/23/23.jpg</v>
       </c>
-      <c r="D23" s="75" t="str">
+      <c r="E23" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/23/23.jpg</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="16">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C24" s="16">
         <v>22</v>
       </c>
-      <c r="C24" s="75" t="str">
+      <c r="D24" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/22/22.jpg</v>
       </c>
-      <c r="D24" s="75" t="str">
+      <c r="E24" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/22/22.jpg</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="16">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C25" s="16">
         <v>24</v>
       </c>
-      <c r="C25" s="75" t="str">
+      <c r="D25" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/24/24.jpg</v>
       </c>
-      <c r="D25" s="75" t="str">
+      <c r="E25" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/24/24.jpg</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="16">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C26" s="16">
         <v>25</v>
       </c>
-      <c r="C26" s="75" t="str">
+      <c r="D26" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/25/25.jpg</v>
       </c>
-      <c r="D26" s="75" t="str">
+      <c r="E26" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/25/25.jpg</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="16">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C27" s="16">
         <v>27</v>
       </c>
-      <c r="C27" s="75" t="str">
+      <c r="D27" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/27/27.jpg</v>
       </c>
-      <c r="D27" s="75" t="str">
+      <c r="E27" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/27/27.jpg</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="16">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C28" s="16">
         <v>28</v>
       </c>
-      <c r="C28" s="75" t="str">
+      <c r="D28" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/28/28.jpg</v>
       </c>
-      <c r="D28" s="75" t="str">
+      <c r="E28" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/28/28.jpg</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="16">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C29" s="16">
         <v>29</v>
       </c>
-      <c r="C29" s="75" t="str">
+      <c r="D29" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/29/29.jpg</v>
       </c>
-      <c r="D29" s="75" t="str">
+      <c r="E29" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/29/29.jpg</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="16">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C30" s="16">
         <v>30</v>
       </c>
-      <c r="C30" s="75" t="str">
+      <c r="D30" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/30/30.jpg</v>
       </c>
-      <c r="D30" s="75" t="str">
+      <c r="E30" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/30/30.jpg</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="16">
         <f>ROW()-1</f>
         <v>30</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="81">
+        <v>45013.439405902776</v>
+      </c>
+      <c r="C31" s="16">
         <v>5</v>
       </c>
-      <c r="C31" s="75" t="str">
+      <c r="D31" s="75" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/5/5.jpg</v>
       </c>
-      <c r="D31" s="75" t="str">
+      <c r="E31" s="75" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/5/5.jpg</v>
       </c>
@@ -8765,7 +8906,7 @@
         <v>341</v>
       </c>
       <c r="D4" s="18" t="str">
-        <f t="shared" ref="D4:D8" si="1">C4&amp;"@gm.lhu.edu.tw"</f>
+        <f t="shared" ref="D4:D7" si="1">C4&amp;"@gm.lhu.edu.tw"</f>
         <v>admin@gm.lhu.edu.tw</v>
       </c>
       <c r="F4" s="18" t="s">

--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LHU\1111Class\wamp64\www\team01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BE285D-0A8C-4DF6-84EA-0A31A3866DBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3042A7-0F27-48AD-B800-BCD81277A774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="397">
   <si>
     <t>中文欄位名稱</t>
   </si>
@@ -169,12 +169,6 @@
   </si>
   <si>
     <t>TIME</t>
-  </si>
-  <si>
-    <t>佐證圖檔資料</t>
-  </si>
-  <si>
-    <t>佐證資料審核</t>
   </si>
   <si>
     <t>樓長審核</t>
@@ -1406,6 +1400,10 @@
   </si>
   <si>
     <t>sid</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐證圖檔路徑</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2288,37 +2286,37 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="36" t="s">
         <v>116</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>118</v>
       </c>
       <c r="L1" s="64" t="s">
         <v>24</v>
@@ -2334,28 +2332,28 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K2" s="19"/>
       <c r="L2" s="65"/>
@@ -2368,28 +2366,28 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="H3" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>132</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="65"/>
@@ -2402,28 +2400,28 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="F4" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="H4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="65"/>
@@ -2436,28 +2434,28 @@
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="H5" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="J5" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="65"/>
@@ -2470,28 +2468,28 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="H6" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="65"/>
@@ -2504,28 +2502,28 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="F7" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="H7" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>150</v>
-      </c>
       <c r="J7" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="65"/>
@@ -2538,28 +2536,28 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="H8" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="J8" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="65"/>
@@ -2572,28 +2570,28 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="H9" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="J9" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="65"/>
@@ -2606,28 +2604,28 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="H10" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="18" t="s">
+      <c r="J10" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="65"/>
@@ -2640,28 +2638,28 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="H11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>166</v>
-      </c>
       <c r="J11" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="65"/>
@@ -2674,28 +2672,28 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F12" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="H12" s="18" t="s">
+      <c r="I12" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="65"/>
@@ -2708,28 +2706,28 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F13" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="I13" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="65"/>
@@ -2742,28 +2740,28 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F14" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14" s="18" t="s">
+      <c r="I14" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="65"/>
@@ -2776,28 +2774,28 @@
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="I15" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="65"/>
@@ -2810,28 +2808,28 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F16" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="I16" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="J16" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="65"/>
@@ -2844,28 +2842,28 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F17" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="I17" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="65"/>
@@ -2878,28 +2876,28 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F18" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="H18" s="18" t="s">
+      <c r="I18" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="J18" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K18" s="19"/>
       <c r="L18" s="65"/>
@@ -2912,28 +2910,28 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F19" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="I19" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="65"/>
@@ -2946,28 +2944,28 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F20" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="18" t="s">
+      <c r="I20" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="J20" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="65"/>
@@ -2980,28 +2978,28 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F21" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="I21" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="65"/>
@@ -3014,28 +3012,28 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F22" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="H22" s="18" t="s">
+      <c r="I22" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="J22" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="65"/>
@@ -3048,28 +3046,28 @@
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F23" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="I23" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="65"/>
@@ -3082,28 +3080,28 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F24" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H24" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="H24" s="18" t="s">
+      <c r="I24" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="J24" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="65"/>
@@ -3116,28 +3114,28 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F25" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G25" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="I25" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K25" s="19"/>
       <c r="L25" s="65"/>
@@ -3150,28 +3148,28 @@
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F26" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="H26" s="18" t="s">
+      <c r="I26" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="J26" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="65"/>
@@ -3184,28 +3182,28 @@
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F27" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="I27" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="65"/>
@@ -3218,28 +3216,28 @@
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F28" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="H28" s="18" t="s">
+      <c r="I28" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="J28" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K28" s="19"/>
       <c r="L28" s="65"/>
@@ -3252,28 +3250,28 @@
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F29" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="H29" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="I29" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="65"/>
@@ -3286,28 +3284,28 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F30" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H30" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H30" s="18" t="s">
+      <c r="I30" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="K30" s="19"/>
       <c r="L30" s="65"/>
@@ -3320,28 +3318,28 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F31" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="I31" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K31" s="19"/>
       <c r="L31" s="65"/>
@@ -3433,26 +3431,26 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>385</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>387</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>36</v>
@@ -3465,10 +3463,10 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>36</v>
@@ -3481,10 +3479,10 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>36</v>
@@ -3497,7 +3495,7 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>40</v>
@@ -3513,10 +3511,10 @@
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>36</v>
@@ -3529,10 +3527,10 @@
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>36</v>
@@ -3545,10 +3543,10 @@
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>36</v>
@@ -3561,10 +3559,10 @@
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>36</v>
@@ -3577,10 +3575,10 @@
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>36</v>
@@ -3692,10 +3690,10 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>36</v>
@@ -3708,10 +3706,10 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -3726,26 +3724,26 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="68" t="s">
         <v>305</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>307</v>
       </c>
       <c r="D5" s="68"/>
       <c r="E5" s="69" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>36</v>
@@ -3857,10 +3855,10 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>36</v>
@@ -3873,10 +3871,10 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>36</v>
@@ -3889,7 +3887,7 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="44" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>39</v>
@@ -4004,13 +4002,13 @@
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
@@ -4020,13 +4018,13 @@
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
@@ -4036,10 +4034,10 @@
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -4054,10 +4052,10 @@
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>8</v>
@@ -4072,35 +4070,35 @@
     </row>
     <row r="7" spans="1:6" s="52" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="63" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="52" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>302</v>
-      </c>
       <c r="C8" s="62" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F8" s="62"/>
     </row>
@@ -4211,7 +4209,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
@@ -4249,15 +4247,15 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -4270,7 +4268,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
@@ -4288,22 +4286,22 @@
         <v>19</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F8" s="53"/>
     </row>
@@ -4354,7 +4352,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4433,7 +4431,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
@@ -4449,7 +4447,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
@@ -4488,12 +4486,12 @@
         <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>39</v>
@@ -4509,7 +4507,7 @@
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>40</v>
@@ -4541,10 +4539,10 @@
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>36</v>
@@ -4557,10 +4555,10 @@
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>18</v>
@@ -4573,10 +4571,10 @@
     </row>
     <row r="13" spans="1:6" ht="18.75" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
@@ -4589,10 +4587,10 @@
     </row>
     <row r="14" spans="1:6" ht="18.75" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>18</v>
@@ -4605,10 +4603,10 @@
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
@@ -4739,13 +4737,13 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
@@ -4755,13 +4753,13 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
@@ -4771,7 +4769,7 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>35</v>
@@ -4787,10 +4785,10 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
@@ -4803,10 +4801,10 @@
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>18</v>
@@ -4918,26 +4916,26 @@
     </row>
     <row r="3" spans="1:6" s="83" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="68" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" s="68" t="s">
         <v>393</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>394</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>395</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="69" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -4952,33 +4950,33 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -5081,13 +5079,13 @@
     </row>
     <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="68" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="69" t="s">
@@ -5097,13 +5095,13 @@
     </row>
     <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="74" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="69" t="s">
@@ -5113,13 +5111,13 @@
     </row>
     <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="69" t="s">
@@ -5129,49 +5127,49 @@
     </row>
     <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -5237,19 +5235,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F1" s="64" t="s">
         <v>24</v>
@@ -5264,16 +5262,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C2" s="16">
         <v>4</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F2" s="65"/>
       <c r="G2" s="65"/>
@@ -5284,16 +5282,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" s="16">
         <v>4</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F3" s="65"/>
       <c r="G3" s="65"/>
@@ -5304,16 +5302,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="16">
         <v>4</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" s="65"/>
       <c r="G4" s="65"/>
@@ -5324,16 +5322,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="16">
         <v>4</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F5" s="65"/>
       <c r="G5" s="65"/>
@@ -5344,16 +5342,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="16">
         <v>4</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="65"/>
@@ -5364,16 +5362,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" s="16">
         <v>4</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="65"/>
       <c r="G7" s="65"/>
@@ -5384,16 +5382,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C8" s="16">
         <v>4</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="65"/>
       <c r="G8" s="65"/>
@@ -5404,16 +5402,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C9" s="16">
         <v>4</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
@@ -5424,16 +5422,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" s="16">
         <v>4</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
@@ -5444,16 +5442,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" s="16">
         <v>4</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11" s="66"/>
       <c r="G11" s="66"/>
@@ -5464,16 +5462,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C12" s="16">
         <v>4</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" s="66"/>
       <c r="G12" s="66"/>
@@ -5484,16 +5482,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" s="16">
         <v>4</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F13" s="66"/>
       <c r="G13" s="66"/>
@@ -5504,16 +5502,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C14" s="16">
         <v>4</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F14" s="66"/>
       <c r="G14" s="66"/>
@@ -5524,16 +5522,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C15" s="16">
         <v>4</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F15" s="66"/>
       <c r="G15" s="66"/>
@@ -5544,16 +5542,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C16" s="16">
         <v>4</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F16" s="66"/>
       <c r="G16" s="66"/>
@@ -5564,16 +5562,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C17" s="16">
         <v>4</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F17" s="66"/>
       <c r="G17" s="66"/>
@@ -5584,16 +5582,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C18" s="16">
         <v>4</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F18" s="66"/>
       <c r="G18" s="66"/>
@@ -5604,16 +5602,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C19" s="16">
         <v>4</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F19" s="66"/>
       <c r="G19" s="66"/>
@@ -5624,16 +5622,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C20" s="16">
         <v>4</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F20" s="66"/>
       <c r="G20" s="66"/>
@@ -5644,16 +5642,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C21" s="16">
         <v>4</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F21" s="66"/>
       <c r="G21" s="66"/>
@@ -5664,16 +5662,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C22" s="16">
         <v>4</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F22" s="66"/>
       <c r="G22" s="66"/>
@@ -5684,16 +5682,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C23" s="16">
         <v>4</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F23" s="66"/>
       <c r="G23" s="66"/>
@@ -5704,16 +5702,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C24" s="16">
         <v>4</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F24" s="66"/>
       <c r="G24" s="66"/>
@@ -5724,16 +5722,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C25" s="16">
         <v>4</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F25" s="66"/>
       <c r="G25" s="66"/>
@@ -5744,16 +5742,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C26" s="16">
         <v>4</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="66"/>
       <c r="G26" s="66"/>
@@ -5764,16 +5762,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C27" s="16">
         <v>4</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F27" s="66"/>
       <c r="G27" s="66"/>
@@ -5784,16 +5782,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C28" s="16">
         <v>4</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F28" s="66"/>
       <c r="G28" s="66"/>
@@ -5804,16 +5802,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C29" s="16">
         <v>4</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -5824,16 +5822,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C30" s="16">
         <v>4</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F30" s="66"/>
       <c r="G30" s="66"/>
@@ -5844,16 +5842,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C31" s="16">
         <v>4</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F31" s="66"/>
       <c r="G31" s="66"/>
@@ -6293,16 +6291,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>85</v>
-      </c>
       <c r="D1" s="71" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>24</v>
@@ -6317,13 +6315,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>89</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -6334,13 +6332,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
@@ -6351,13 +6349,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
@@ -6368,13 +6366,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
@@ -6409,25 +6407,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>24</v>
@@ -7086,7 +7084,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7109,7 +7107,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D1" s="76" t="s">
         <v>29</v>
@@ -7124,7 +7122,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="77" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>24</v>
@@ -7890,10 +7888,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7905,16 +7903,16 @@
     <col min="7" max="7" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>29</v>
@@ -7929,43 +7927,40 @@
         <v>34</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G1" s="72" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>50</v>
+      <c r="O1" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1">
       <c r="A2" s="16">
         <f>ROW()-1</f>
         <v>1</v>
@@ -7974,22 +7969,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="I2" s="25">
         <v>1.9791666666666665</v>
@@ -8001,9 +7996,8 @@
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-    </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:16" ht="18.75" customHeight="1">
       <c r="A3" s="16">
         <f>ROW()-1</f>
         <v>2</v>
@@ -8012,22 +8006,22 @@
         <v>7</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="I3" s="25">
         <v>0</v>
@@ -8039,7 +8033,6 @@
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -8071,25 +8064,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>65</v>
-      </c>
       <c r="F1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>48</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>24</v>
@@ -8107,13 +8100,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -8129,13 +8122,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>70</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -8155,7 +8148,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -8171,19 +8164,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>24</v>
@@ -8821,25 +8814,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>328</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>330</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>24</v>
@@ -8854,10 +8847,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D2" s="18" t="str">
         <f>C2&amp;"@gm.lhu.edu.tw"</f>
@@ -8865,7 +8858,7 @@
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="19"/>
@@ -8877,10 +8870,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D3" s="18" t="str">
         <f>C3&amp;"@gm.lhu.edu.tw"</f>
@@ -8888,7 +8881,7 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="19"/>
@@ -8900,17 +8893,17 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D4" s="18" t="str">
         <f t="shared" ref="D4:D7" si="1">C4&amp;"@gm.lhu.edu.tw"</f>
         <v>admin@gm.lhu.edu.tw</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8919,17 +8912,17 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>housermaster@gm.lhu.edu.tw</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8938,17 +8931,17 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D6" s="18" t="str">
         <f t="shared" si="1"/>
         <v>chief@gm.lhu.edu.tw</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8957,17 +8950,17 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D7" s="18" t="str">
         <f t="shared" si="1"/>
         <v>floorhead@gm.lhu.edu.tw</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8976,17 +8969,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D8" s="43" t="str">
         <f>學生資料表!C2&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094162012@gm.lhu.edu.tw</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8995,17 +8988,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D9" s="43" t="str">
         <f>學生資料表!C3&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094182042@gm.lhu.edu.tw</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9014,17 +9007,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D10" s="43" t="str">
         <f>學生資料表!C4&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181008@gm.lhu.edu.tw</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9033,17 +9026,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D11" s="43" t="str">
         <f>學生資料表!C5&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181004@gm.lhu.edu.tw</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9052,17 +9045,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D12" s="43" t="str">
         <f>學生資料表!C6&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181045@gm.lhu.edu.tw</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9071,17 +9064,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D13" s="43" t="str">
         <f>學生資料表!C7&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181086@gm.lhu.edu.tw</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9090,17 +9083,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D14" s="43" t="str">
         <f>學生資料表!C8&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181127@gm.lhu.edu.tw</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9109,17 +9102,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D15" s="43" t="str">
         <f>學生資料表!C9&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181168@gm.lhu.edu.tw</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9128,17 +9121,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D16" s="43" t="str">
         <f>學生資料表!C10&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181209@gm.lhu.edu.tw</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9147,17 +9140,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D17" s="43" t="str">
         <f>學生資料表!C11&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181250@gm.lhu.edu.tw</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9166,17 +9159,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D18" s="43" t="str">
         <f>學生資料表!C12&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114162716@gm.lhu.edu.tw</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -9185,17 +9178,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D19" s="43" t="str">
         <f>學生資料表!C13&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114161029@gm.lhu.edu.tw</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -9204,17 +9197,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D20" s="43" t="str">
         <f>學生資料表!C14&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114162715@gm.lhu.edu.tw</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9223,17 +9216,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D21" s="43" t="str">
         <f>學生資料表!C15&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114181057@gm.lhu.edu.tw</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -9242,17 +9235,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D22" s="43" t="str">
         <f>學生資料表!C16&amp;"@gm.lhu.edu.tw"</f>
         <v>D1104171004@gm.lhu.edu.tw</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9261,17 +9254,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D23" s="43" t="str">
         <f>學生資料表!C17&amp;"@gm.lhu.edu.tw"</f>
         <v>D1104423001@gm.lhu.edu.tw</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9280,17 +9273,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D24" s="43" t="str">
         <f>學生資料表!C18&amp;"@gm.lhu.edu.tw"</f>
         <v>D1104171007@gm.lhu.edu.tw</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -9299,17 +9292,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D25" s="43" t="str">
         <f>學生資料表!C19&amp;"@gm.lhu.edu.tw"</f>
         <v>D1104171003@gm.lhu.edu.tw</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9318,17 +9311,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D26" s="43" t="str">
         <f>學生資料表!C20&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114111012@gm.lhu.edu.tw</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9337,17 +9330,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D27" s="43" t="str">
         <f>學生資料表!C21&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114111049@gm.lhu.edu.tw</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9356,17 +9349,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D28" s="43" t="str">
         <f>學生資料表!C22&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114112006@gm.lhu.edu.tw</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9375,17 +9368,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D29" s="43" t="str">
         <f>學生資料表!C23&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114112050@gm.lhu.edu.tw</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9394,17 +9387,17 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D30" s="43" t="str">
         <f>學生資料表!C24&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114181050@gm.lhu.edu.tw</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9413,17 +9406,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D31" s="43" t="str">
         <f>學生資料表!C25&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114161706@gm.lhu.edu.tw</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:6">

--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LHU\1111Class\wamp64\www\team01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3042A7-0F27-48AD-B800-BCD81277A774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4FF036-804E-4769-8720-AF475623F41D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="392">
   <si>
     <t>中文欄位名稱</t>
   </si>
@@ -1146,10 +1146,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>電子信箱</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1224,28 +1220,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>系統後台管理員</t>
-  </si>
-  <si>
-    <t>宿舍行政</t>
-  </si>
-  <si>
-    <t>宿舍輔導員</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>總樓長</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>樓長</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宿生</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>$2y$10$zYroBazMjLjmrVg3yh6EFObhArojTWTioYU1/Y6KAegQYFbUQhi1u</t>
   </si>
   <si>
@@ -1404,6 +1378,14 @@
   </si>
   <si>
     <t>佐證圖檔路徑</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbid</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1727,7 +1709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1929,9 +1911,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1958,6 +1937,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2288,8 +2276,8 @@
       <c r="A1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="79" t="s">
-        <v>383</v>
+      <c r="B1" s="78" t="s">
+        <v>376</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>102</v>
@@ -3430,18 +3418,18 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="78" t="s">
-        <v>383</v>
+      <c r="A3" s="77" t="s">
+        <v>376</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="69" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F3" s="68"/>
     </row>
@@ -4291,17 +4279,17 @@
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F8" s="53"/>
     </row>
@@ -4914,19 +4902,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="83" customFormat="1" ht="18.75" customHeight="1">
+    <row r="3" spans="1:6" s="82" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="68" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="69" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F3" s="68"/>
     </row>
@@ -4935,7 +4923,7 @@
         <v>322</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -4950,10 +4938,10 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>301</v>
@@ -4966,10 +4954,10 @@
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>301</v>
@@ -5023,8 +5011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8262AA0D-6B70-4BC3-B4BF-09AD83C27792}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5078,27 +5066,27 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>301</v>
-      </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69" t="s">
+      <c r="A3" s="84" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="74" t="s">
-        <v>335</v>
+      <c r="A4" s="73" t="s">
+        <v>334</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>301</v>
@@ -5111,10 +5099,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>301</v>
@@ -5127,10 +5115,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>26</v>
@@ -5143,10 +5131,10 @@
     </row>
     <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>301</v>
@@ -5159,13 +5147,13 @@
     </row>
     <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>332</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
@@ -7109,7 +7097,7 @@
       <c r="C1" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="75" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -7121,8 +7109,8 @@
       <c r="G1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="77" t="s">
-        <v>379</v>
+      <c r="H1" s="76" t="s">
+        <v>372</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>24</v>
@@ -7890,7 +7878,7 @@
   </sheetPr>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -7939,7 +7927,7 @@
         <v>41</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>44</v>
@@ -8155,7 +8143,7 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="82" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="81" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="19" bestFit="1" customWidth="1"/>
@@ -8166,17 +8154,17 @@
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>391</v>
+      <c r="B1" s="79" t="s">
+        <v>384</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>24</v>
@@ -8190,17 +8178,17 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="81">
+      <c r="B2" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C2" s="16">
         <v>6</v>
       </c>
-      <c r="D2" s="75" t="str">
+      <c r="D2" s="74" t="str">
         <f>"storage/uploads/0326/"&amp;C2&amp;"/"&amp;C2&amp;".jpg"</f>
         <v>storage/uploads/0326/6/6.jpg</v>
       </c>
-      <c r="E2" s="75" t="str">
+      <c r="E2" s="74" t="str">
         <f>"storage/webcams/0326/"&amp;C2&amp;"/"&amp;C2&amp;".jpg"</f>
         <v>storage/webcams/0326/6/6.jpg</v>
       </c>
@@ -8210,17 +8198,17 @@
         <f>ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="81">
+      <c r="B3" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C3" s="16">
         <v>3</v>
       </c>
-      <c r="D3" s="75" t="str">
+      <c r="D3" s="74" t="str">
         <f t="shared" ref="D3:D31" si="0">"storage/uploads/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
         <v>storage/uploads/0326/3/3.jpg</v>
       </c>
-      <c r="E3" s="75" t="str">
+      <c r="E3" s="74" t="str">
         <f t="shared" ref="E3:E31" si="1">"storage/webcams/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
         <v>storage/webcams/0326/3/3.jpg</v>
       </c>
@@ -8230,17 +8218,17 @@
         <f t="shared" ref="A4:A30" si="2">ROW()-1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="81">
+      <c r="B4" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="75" t="str">
+      <c r="D4" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/1/1.jpg</v>
       </c>
-      <c r="E4" s="75" t="str">
+      <c r="E4" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/1/1.jpg</v>
       </c>
@@ -8250,17 +8238,17 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B5" s="81">
+      <c r="B5" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C5" s="16">
         <v>4</v>
       </c>
-      <c r="D5" s="75" t="str">
+      <c r="D5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/4/4.jpg</v>
       </c>
-      <c r="E5" s="75" t="str">
+      <c r="E5" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/4/4.jpg</v>
       </c>
@@ -8270,17 +8258,17 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C6" s="16">
         <v>2</v>
       </c>
-      <c r="D6" s="75" t="str">
+      <c r="D6" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/2/2.jpg</v>
       </c>
-      <c r="E6" s="75" t="str">
+      <c r="E6" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/2/2.jpg</v>
       </c>
@@ -8290,17 +8278,17 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C7" s="16">
         <v>8</v>
       </c>
-      <c r="D7" s="75" t="str">
+      <c r="D7" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/8/8.jpg</v>
       </c>
-      <c r="E7" s="75" t="str">
+      <c r="E7" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/8/8.jpg</v>
       </c>
@@ -8310,17 +8298,17 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C8" s="16">
         <v>9</v>
       </c>
-      <c r="D8" s="75" t="str">
+      <c r="D8" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/9/9.jpg</v>
       </c>
-      <c r="E8" s="75" t="str">
+      <c r="E8" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/9/9.jpg</v>
       </c>
@@ -8330,17 +8318,17 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C9" s="16">
         <v>7</v>
       </c>
-      <c r="D9" s="75" t="str">
+      <c r="D9" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/7/7.jpg</v>
       </c>
-      <c r="E9" s="75" t="str">
+      <c r="E9" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/7/7.jpg</v>
       </c>
@@ -8350,17 +8338,17 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C10" s="16">
         <v>11</v>
       </c>
-      <c r="D10" s="75" t="str">
+      <c r="D10" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/11/11.jpg</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="E10" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/11/11.jpg</v>
       </c>
@@ -8370,17 +8358,17 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C11" s="16">
         <v>10</v>
       </c>
-      <c r="D11" s="75" t="str">
+      <c r="D11" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/10/10.jpg</v>
       </c>
-      <c r="E11" s="75" t="str">
+      <c r="E11" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/10/10.jpg</v>
       </c>
@@ -8390,17 +8378,17 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C12" s="16">
         <v>12</v>
       </c>
-      <c r="D12" s="75" t="str">
+      <c r="D12" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/12/12.jpg</v>
       </c>
-      <c r="E12" s="75" t="str">
+      <c r="E12" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/12/12.jpg</v>
       </c>
@@ -8410,17 +8398,17 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C13" s="16">
         <v>13</v>
       </c>
-      <c r="D13" s="75" t="str">
+      <c r="D13" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/13/13.jpg</v>
       </c>
-      <c r="E13" s="75" t="str">
+      <c r="E13" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/13/13.jpg</v>
       </c>
@@ -8430,17 +8418,17 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C14" s="16">
         <v>14</v>
       </c>
-      <c r="D14" s="75" t="str">
+      <c r="D14" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/14/14.jpg</v>
       </c>
-      <c r="E14" s="75" t="str">
+      <c r="E14" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/14/14.jpg</v>
       </c>
@@ -8450,17 +8438,17 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B15" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C15" s="16">
         <v>15</v>
       </c>
-      <c r="D15" s="75" t="str">
+      <c r="D15" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/15/15.jpg</v>
       </c>
-      <c r="E15" s="75" t="str">
+      <c r="E15" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/15/15.jpg</v>
       </c>
@@ -8470,17 +8458,17 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C16" s="16">
         <v>16</v>
       </c>
-      <c r="D16" s="75" t="str">
+      <c r="D16" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/16/16.jpg</v>
       </c>
-      <c r="E16" s="75" t="str">
+      <c r="E16" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/16/16.jpg</v>
       </c>
@@ -8490,17 +8478,17 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B17" s="81">
+      <c r="B17" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C17" s="16">
         <v>18</v>
       </c>
-      <c r="D17" s="75" t="str">
+      <c r="D17" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/18/18.jpg</v>
       </c>
-      <c r="E17" s="75" t="str">
+      <c r="E17" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/18/18.jpg</v>
       </c>
@@ -8510,17 +8498,17 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B18" s="81">
+      <c r="B18" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C18" s="16">
         <v>19</v>
       </c>
-      <c r="D18" s="75" t="str">
+      <c r="D18" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/19/19.jpg</v>
       </c>
-      <c r="E18" s="75" t="str">
+      <c r="E18" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/19/19.jpg</v>
       </c>
@@ -8530,17 +8518,17 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C19" s="16">
         <v>20</v>
       </c>
-      <c r="D19" s="75" t="str">
+      <c r="D19" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/20/20.jpg</v>
       </c>
-      <c r="E19" s="75" t="str">
+      <c r="E19" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/20/20.jpg</v>
       </c>
@@ -8550,17 +8538,17 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B20" s="81">
+      <c r="B20" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C20" s="16">
         <v>17</v>
       </c>
-      <c r="D20" s="75" t="str">
+      <c r="D20" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/17/17.jpg</v>
       </c>
-      <c r="E20" s="75" t="str">
+      <c r="E20" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/17/17.jpg</v>
       </c>
@@ -8570,17 +8558,17 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B21" s="81">
+      <c r="B21" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C21" s="16">
         <v>26</v>
       </c>
-      <c r="D21" s="75" t="str">
+      <c r="D21" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/26/26.jpg</v>
       </c>
-      <c r="E21" s="75" t="str">
+      <c r="E21" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/26/26.jpg</v>
       </c>
@@ -8590,17 +8578,17 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B22" s="81">
+      <c r="B22" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C22" s="16">
         <v>21</v>
       </c>
-      <c r="D22" s="75" t="str">
+      <c r="D22" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/21/21.jpg</v>
       </c>
-      <c r="E22" s="75" t="str">
+      <c r="E22" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/21/21.jpg</v>
       </c>
@@ -8610,17 +8598,17 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B23" s="81">
+      <c r="B23" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C23" s="16">
         <v>23</v>
       </c>
-      <c r="D23" s="75" t="str">
+      <c r="D23" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/23/23.jpg</v>
       </c>
-      <c r="E23" s="75" t="str">
+      <c r="E23" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/23/23.jpg</v>
       </c>
@@ -8630,17 +8618,17 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B24" s="81">
+      <c r="B24" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C24" s="16">
         <v>22</v>
       </c>
-      <c r="D24" s="75" t="str">
+      <c r="D24" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/22/22.jpg</v>
       </c>
-      <c r="E24" s="75" t="str">
+      <c r="E24" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/22/22.jpg</v>
       </c>
@@ -8650,17 +8638,17 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B25" s="81">
+      <c r="B25" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C25" s="16">
         <v>24</v>
       </c>
-      <c r="D25" s="75" t="str">
+      <c r="D25" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/24/24.jpg</v>
       </c>
-      <c r="E25" s="75" t="str">
+      <c r="E25" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/24/24.jpg</v>
       </c>
@@ -8670,17 +8658,17 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B26" s="81">
+      <c r="B26" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C26" s="16">
         <v>25</v>
       </c>
-      <c r="D26" s="75" t="str">
+      <c r="D26" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/25/25.jpg</v>
       </c>
-      <c r="E26" s="75" t="str">
+      <c r="E26" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/25/25.jpg</v>
       </c>
@@ -8690,17 +8678,17 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B27" s="81">
+      <c r="B27" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C27" s="16">
         <v>27</v>
       </c>
-      <c r="D27" s="75" t="str">
+      <c r="D27" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/27/27.jpg</v>
       </c>
-      <c r="E27" s="75" t="str">
+      <c r="E27" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/27/27.jpg</v>
       </c>
@@ -8710,17 +8698,17 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B28" s="81">
+      <c r="B28" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C28" s="16">
         <v>28</v>
       </c>
-      <c r="D28" s="75" t="str">
+      <c r="D28" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/28/28.jpg</v>
       </c>
-      <c r="E28" s="75" t="str">
+      <c r="E28" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/28/28.jpg</v>
       </c>
@@ -8730,17 +8718,17 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B29" s="81">
+      <c r="B29" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C29" s="16">
         <v>29</v>
       </c>
-      <c r="D29" s="75" t="str">
+      <c r="D29" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/29/29.jpg</v>
       </c>
-      <c r="E29" s="75" t="str">
+      <c r="E29" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/29/29.jpg</v>
       </c>
@@ -8750,17 +8738,17 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B30" s="81">
+      <c r="B30" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C30" s="16">
         <v>30</v>
       </c>
-      <c r="D30" s="75" t="str">
+      <c r="D30" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/30/30.jpg</v>
       </c>
-      <c r="E30" s="75" t="str">
+      <c r="E30" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/30/30.jpg</v>
       </c>
@@ -8770,17 +8758,17 @@
         <f>ROW()-1</f>
         <v>30</v>
       </c>
-      <c r="B31" s="81">
+      <c r="B31" s="80">
         <v>45013.439405902776</v>
       </c>
       <c r="C31" s="16">
         <v>5</v>
       </c>
-      <c r="D31" s="75" t="str">
+      <c r="D31" s="74" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/5/5.jpg</v>
       </c>
-      <c r="E31" s="75" t="str">
+      <c r="E31" s="74" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/5/5.jpg</v>
       </c>
@@ -8797,7 +8785,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8816,23 +8804,23 @@
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>324</v>
-      </c>
       <c r="E1" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>327</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>328</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>24</v>
@@ -8846,11 +8834,12 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>348</v>
+      <c r="B2" s="16">
+        <f>ROW()-1</f>
+        <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D2" s="18" t="str">
         <f>C2&amp;"@gm.lhu.edu.tw"</f>
@@ -8858,7 +8847,7 @@
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="19"/>
@@ -8866,14 +8855,15 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="16">
-        <f t="shared" ref="A3:A30" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:B30" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>343</v>
+      <c r="B3" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" s="18" t="str">
         <f>C3&amp;"@gm.lhu.edu.tw"</f>
@@ -8881,7 +8871,7 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="19"/>
@@ -8892,18 +8882,19 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>344</v>
+      <c r="B4" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D4" s="18" t="str">
         <f t="shared" ref="D4:D7" si="1">C4&amp;"@gm.lhu.edu.tw"</f>
         <v>admin@gm.lhu.edu.tw</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8911,18 +8902,19 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>345</v>
+      <c r="B5" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>housermaster@gm.lhu.edu.tw</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8930,18 +8922,19 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>346</v>
+      <c r="B6" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D6" s="18" t="str">
         <f t="shared" si="1"/>
         <v>chief@gm.lhu.edu.tw</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8949,18 +8942,19 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>347</v>
+      <c r="B7" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D7" s="18" t="str">
         <f t="shared" si="1"/>
         <v>floorhead@gm.lhu.edu.tw</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8968,18 +8962,19 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>120</v>
+      <c r="B8" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="43" t="str">
         <f>學生資料表!C2&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094162012@gm.lhu.edu.tw</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8987,18 +8982,19 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>127</v>
+      <c r="B9" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D9" s="43" t="str">
         <f>學生資料表!C3&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094182042@gm.lhu.edu.tw</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9006,18 +9002,19 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>133</v>
+      <c r="B10" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D10" s="43" t="str">
         <f>學生資料表!C4&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181008@gm.lhu.edu.tw</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9025,18 +9022,19 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>137</v>
+      <c r="B11" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D11" s="43" t="str">
         <f>學生資料表!C5&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181004@gm.lhu.edu.tw</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9044,18 +9042,19 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>141</v>
+      <c r="B12" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D12" s="43" t="str">
         <f>學生資料表!C6&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181045@gm.lhu.edu.tw</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9063,18 +9062,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>146</v>
+      <c r="B13" s="16">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D13" s="43" t="str">
         <f>學生資料表!C7&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181086@gm.lhu.edu.tw</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9082,18 +9082,19 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>150</v>
+      <c r="B14" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D14" s="43" t="str">
         <f>學生資料表!C8&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181127@gm.lhu.edu.tw</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9101,18 +9102,19 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>154</v>
+      <c r="B15" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D15" s="43" t="str">
         <f>學生資料表!C9&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181168@gm.lhu.edu.tw</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9120,18 +9122,19 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>158</v>
+      <c r="B16" s="16">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D16" s="43" t="str">
         <f>學生資料表!C10&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181209@gm.lhu.edu.tw</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9139,18 +9142,19 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>162</v>
+      <c r="B17" s="16">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D17" s="43" t="str">
         <f>學生資料表!C11&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181250@gm.lhu.edu.tw</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9158,18 +9162,19 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>230</v>
+      <c r="B18" s="16">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D18" s="43" t="str">
         <f>學生資料表!C12&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114162716@gm.lhu.edu.tw</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -9177,18 +9182,19 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>232</v>
+      <c r="B19" s="16">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D19" s="43" t="str">
         <f>學生資料表!C13&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114161029@gm.lhu.edu.tw</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -9196,18 +9202,19 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>234</v>
+      <c r="B20" s="16">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D20" s="43" t="str">
         <f>學生資料表!C14&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114162715@gm.lhu.edu.tw</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9215,18 +9222,19 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>236</v>
+      <c r="B21" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D21" s="43" t="str">
         <f>學生資料表!C15&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114181057@gm.lhu.edu.tw</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -9234,18 +9242,19 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>238</v>
+      <c r="B22" s="16">
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D22" s="43" t="str">
         <f>學生資料表!C16&amp;"@gm.lhu.edu.tw"</f>
         <v>D1104171004@gm.lhu.edu.tw</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9253,18 +9262,19 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>240</v>
+      <c r="B23" s="16">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D23" s="43" t="str">
         <f>學生資料表!C17&amp;"@gm.lhu.edu.tw"</f>
         <v>D1104423001@gm.lhu.edu.tw</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9272,18 +9282,19 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>242</v>
+      <c r="B24" s="16">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D24" s="43" t="str">
         <f>學生資料表!C18&amp;"@gm.lhu.edu.tw"</f>
         <v>D1104171007@gm.lhu.edu.tw</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -9291,18 +9302,19 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>244</v>
+      <c r="B25" s="16">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D25" s="43" t="str">
         <f>學生資料表!C19&amp;"@gm.lhu.edu.tw"</f>
         <v>D1104171003@gm.lhu.edu.tw</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9310,18 +9322,19 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>246</v>
+      <c r="B26" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D26" s="43" t="str">
         <f>學生資料表!C20&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114111012@gm.lhu.edu.tw</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9329,18 +9342,19 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>248</v>
+      <c r="B27" s="16">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D27" s="43" t="str">
         <f>學生資料表!C21&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114111049@gm.lhu.edu.tw</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9348,18 +9362,19 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>250</v>
+      <c r="B28" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D28" s="43" t="str">
         <f>學生資料表!C22&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114112006@gm.lhu.edu.tw</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9367,18 +9382,19 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>252</v>
+      <c r="B29" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D29" s="43" t="str">
         <f>學生資料表!C23&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114112050@gm.lhu.edu.tw</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9386,18 +9402,19 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>254</v>
+      <c r="B30" s="16">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D30" s="43" t="str">
         <f>學生資料表!C24&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114181050@gm.lhu.edu.tw</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9405,18 +9422,19 @@
         <f>ROW()-1</f>
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>256</v>
+      <c r="B31" s="16">
+        <f>ROW()-1</f>
+        <v>30</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D31" s="43" t="str">
         <f>學生資料表!C25&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114161706@gm.lhu.edu.tw</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:6">

--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LHU\1111Class\wamp64\www\team01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\至昊\php\team01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4FF036-804E-4769-8720-AF475623F41D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2700518-F7AF-4E72-9C84-FB471077B64E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="396">
   <si>
     <t>中文欄位名稱</t>
   </si>
@@ -1386,6 +1386,22 @@
   </si>
   <si>
     <t>INT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>點名者</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>rollcaller</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡至昊</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1709,7 +1725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1945,6 +1961,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4133,10 +4152,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4190,81 +4209,79 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>177</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>178</v>
+      <c r="E6" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
@@ -4274,47 +4291,49 @@
         <v>19</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>372</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>373</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>374</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="F8" s="53"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
@@ -4324,6 +4343,22 @@
         <v>19</v>
       </c>
       <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -4340,7 +4375,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5011,7 +5046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8262AA0D-6B70-4BC3-B4BF-09AD83C27792}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
@@ -7069,801 +7104,898 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="86" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="D1" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="E1" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="I1" s="76" t="s">
         <v>372</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1">
       <c r="A2" s="16">
         <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="17">
         <v>44847</v>
       </c>
-      <c r="C2" s="55">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16">
-        <v>1</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="55">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="18"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="18">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18">
         <v>0</v>
       </c>
-      <c r="I2" s="19"/>
       <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1">
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" customHeight="1">
       <c r="A3" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="17">
         <v>44847</v>
       </c>
-      <c r="C3" s="55">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="D3" s="55">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16">
         <v>2</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="18"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="18">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
       <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" customHeight="1">
       <c r="A4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" s="17">
         <v>44847</v>
       </c>
-      <c r="C4" s="55">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="D4" s="55">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
         <v>3</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="18">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18">
         <v>0</v>
       </c>
-      <c r="I4" s="19"/>
       <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" customHeight="1">
       <c r="A5" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="17">
         <v>44847</v>
       </c>
-      <c r="C5" s="55">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="D5" s="55">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="18"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="18">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18">
         <v>0</v>
       </c>
-      <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1">
       <c r="A6" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" s="17">
         <v>44847</v>
       </c>
-      <c r="C6" s="55">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="D6" s="55">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16">
         <v>5</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="18">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18">
         <v>0</v>
       </c>
-      <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1">
       <c r="A7" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="17">
         <v>44847</v>
       </c>
-      <c r="C7" s="55">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="D7" s="55">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
         <v>6</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="18">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18">
         <v>0</v>
       </c>
-      <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1">
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1">
       <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="17">
         <v>44847</v>
       </c>
-      <c r="C8" s="55">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="D8" s="55">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
         <v>7</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="18">
-        <v>1</v>
-      </c>
-      <c r="I8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
       <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1">
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" customHeight="1">
       <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="17">
         <v>44847</v>
       </c>
-      <c r="C9" s="55">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="D9" s="55">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
         <v>8</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="18">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18">
         <v>0</v>
       </c>
-      <c r="I9" s="19"/>
       <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1">
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="17">
         <v>44847</v>
       </c>
-      <c r="C10" s="55">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="D10" s="55">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16">
         <v>9</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="18">
-        <v>1</v>
-      </c>
-      <c r="I10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
       <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1">
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" customHeight="1">
       <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" s="17">
         <v>44847</v>
       </c>
-      <c r="C11" s="55">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="D11" s="55">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16">
         <v>10</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="18">
-        <v>1</v>
-      </c>
-      <c r="I11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
       <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C12" s="17">
         <v>44847</v>
       </c>
-      <c r="C12" s="55">
-        <v>1</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="D12" s="55">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
         <v>11</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" s="17">
         <v>44847</v>
       </c>
-      <c r="C13" s="55">
-        <v>1</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="D13" s="55">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16">
         <v>12</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="17">
         <v>44847</v>
       </c>
-      <c r="C14" s="57">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="D14" s="57">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
         <v>13</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="17">
         <v>44847</v>
       </c>
-      <c r="C15" s="57">
-        <v>1</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="D15" s="57">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
         <v>14</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" s="17">
         <v>44847</v>
       </c>
-      <c r="C16" s="57">
-        <v>1</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="D16" s="57">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
         <v>15</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="F16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="18">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="17">
         <v>44847</v>
       </c>
-      <c r="C17" s="57">
-        <v>1</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="D17" s="57">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16">
         <v>16</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="18">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="17">
         <v>44847</v>
       </c>
-      <c r="C18" s="57">
-        <v>1</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="D18" s="57">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16">
         <v>17</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="F18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="18">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" s="17">
         <v>44847</v>
       </c>
-      <c r="C19" s="57">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="D19" s="57">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16">
         <v>18</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="18">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C20" s="17">
         <v>44847</v>
       </c>
-      <c r="C20" s="57">
-        <v>1</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="D20" s="57">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16">
         <v>19</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="F20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="18">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21" s="17">
         <v>44847</v>
       </c>
-      <c r="C21" s="57">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="D21" s="57">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16">
         <v>20</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
+      <c r="H21" s="18"/>
+      <c r="I21" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22" s="17">
         <v>44847</v>
       </c>
-      <c r="C22" s="57">
-        <v>1</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="D22" s="57">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
         <v>21</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="F22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="H22" s="18"/>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C23" s="17">
         <v>44847</v>
       </c>
-      <c r="C23" s="57">
-        <v>1</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="D23" s="57">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16">
         <v>22</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="F23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="H23" s="18"/>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C24" s="17">
         <v>44847</v>
       </c>
-      <c r="C24" s="57">
-        <v>1</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="D24" s="57">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16">
         <v>23</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="H24" s="18"/>
+      <c r="I24" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" s="17">
         <v>44847</v>
       </c>
-      <c r="C25" s="57">
-        <v>1</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="D25" s="57">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16">
         <v>24</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="F25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C26" s="17">
         <v>44847</v>
       </c>
-      <c r="C26" s="57">
-        <v>1</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="D26" s="57">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16">
         <v>25</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="18">
+      <c r="H26" s="18"/>
+      <c r="I26" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C27" s="17">
         <v>44847</v>
       </c>
-      <c r="C27" s="57">
-        <v>1</v>
-      </c>
-      <c r="D27" s="16">
+      <c r="D27" s="57">
+        <v>1</v>
+      </c>
+      <c r="E27" s="16">
         <v>26</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="F27" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="H27" s="18"/>
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" s="17">
         <v>44847</v>
       </c>
-      <c r="C28" s="57">
-        <v>1</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="D28" s="57">
+        <v>1</v>
+      </c>
+      <c r="E28" s="16">
         <v>27</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="F28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="18">
+      <c r="H28" s="18"/>
+      <c r="I28" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C29" s="17">
         <v>44847</v>
       </c>
-      <c r="C29" s="57">
-        <v>1</v>
-      </c>
-      <c r="D29" s="16">
+      <c r="D29" s="57">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16">
         <v>28</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="F29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18"/>
       <c r="G29" s="18"/>
-      <c r="H29" s="18">
+      <c r="H29" s="18"/>
+      <c r="I29" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" s="17">
         <v>44847</v>
       </c>
-      <c r="C30" s="57">
-        <v>1</v>
-      </c>
-      <c r="D30" s="16">
+      <c r="D30" s="57">
+        <v>1</v>
+      </c>
+      <c r="E30" s="16">
         <v>29</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="F30" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="18"/>
       <c r="G30" s="18"/>
-      <c r="H30" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="H30" s="18"/>
+      <c r="I30" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C31" s="17">
         <v>44847</v>
       </c>
-      <c r="C31" s="57">
-        <v>1</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="D31" s="57">
+        <v>1</v>
+      </c>
+      <c r="E31" s="16">
         <v>30</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="F31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="18"/>
       <c r="G31" s="18"/>
-      <c r="H31" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="H31" s="18"/>
+      <c r="I31" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="10"/>
-      <c r="E32"/>
+      <c r="E32" s="10"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="10"/>
-      <c r="E33"/>
+      <c r="E33" s="10"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="10"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="10"/>
-      <c r="E34"/>
+      <c r="E34" s="10"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
+      <c r="K34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\至昊\php\team01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2700518-F7AF-4E72-9C84-FB471077B64E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1982CA-A44E-4685-A6E0-77FA498A7649}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="397">
   <si>
     <t>中文欄位名稱</t>
   </si>
@@ -1402,6 +1402,10 @@
   </si>
   <si>
     <t>簡至昊</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者姓名</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -7106,7 +7110,7 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
@@ -8914,54 +8918,58 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28274BE4-8E5D-4735-A260-307D768C4F6C}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="83" t="s">
         <v>390</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="16">
         <f>ROW()-1</f>
         <v>1</v>
@@ -8970,22 +8978,26 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="str">
+        <f>D2</f>
+        <v>user</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="18" t="str">
-        <f>C2&amp;"@gm.lhu.edu.tw"</f>
+      <c r="E2" s="18" t="str">
+        <f>D2&amp;"@gm.lhu.edu.tw"</f>
         <v>user@gm.lhu.edu.tw</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="16">
         <f t="shared" ref="A3:B30" si="0">ROW()-1</f>
         <v>2</v>
@@ -8994,22 +9006,26 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="str">
+        <f t="shared" ref="C3:C31" si="1">D3</f>
+        <v>superadmin</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="18" t="str">
-        <f>C3&amp;"@gm.lhu.edu.tw"</f>
+      <c r="E3" s="18" t="str">
+        <f>D3&amp;"@gm.lhu.edu.tw"</f>
         <v>superadmin@gm.lhu.edu.tw</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -9018,18 +9034,22 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>admin</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="18" t="str">
-        <f t="shared" ref="D4:D7" si="1">C4&amp;"@gm.lhu.edu.tw"</f>
+      <c r="E4" s="18" t="str">
+        <f t="shared" ref="E4:E7" si="2">D4&amp;"@gm.lhu.edu.tw"</f>
         <v>admin@gm.lhu.edu.tw</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9038,58 +9058,70 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>housermaster</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="D5" s="18" t="str">
+      <c r="E5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>housermaster@gm.lhu.edu.tw</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>housermaster@gm.lhu.edu.tw</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C6" s="18" t="s">
+        <v>chief</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="18" t="str">
+      <c r="E6" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>chief@gm.lhu.edu.tw</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>chief@gm.lhu.edu.tw</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C7" s="18" t="s">
+        <v>floorhead</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="E7" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>floorhead@gm.lhu.edu.tw</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9098,18 +9130,22 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="16" t="str">
+        <f>學生資料表!E2</f>
+        <v>簡至昊</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D8" s="43" t="str">
+      <c r="E8" s="43" t="str">
         <f>學生資料表!C2&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094162012@gm.lhu.edu.tw</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="G8" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9118,18 +9154,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="16" t="str">
+        <f>學生資料表!E3</f>
+        <v>羅銘麒</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D9" s="43" t="str">
+      <c r="E9" s="43" t="str">
         <f>學生資料表!C3&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094182042@gm.lhu.edu.tw</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9138,18 +9178,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="16" t="str">
+        <f>學生資料表!E4</f>
+        <v>楊竣捷</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D10" s="43" t="str">
+      <c r="E10" s="43" t="str">
         <f>學生資料表!C4&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181008@gm.lhu.edu.tw</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="G10" s="18" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9158,18 +9202,22 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="16" t="str">
+        <f>學生資料表!E5</f>
+        <v>楊敦傑</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D11" s="43" t="str">
+      <c r="E11" s="43" t="str">
         <f>學生資料表!C5&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181004@gm.lhu.edu.tw</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9178,18 +9226,22 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="16" t="str">
+        <f>學生資料表!E6</f>
+        <v>徐茂霖</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D12" s="43" t="str">
+      <c r="E12" s="43" t="str">
         <f>學生資料表!C6&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181045@gm.lhu.edu.tw</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9198,18 +9250,22 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="16" t="str">
+        <f>學生資料表!E7</f>
+        <v>楊衍俊</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D13" s="43" t="str">
+      <c r="E13" s="43" t="str">
         <f>學生資料表!C7&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181086@gm.lhu.edu.tw</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="G13" s="18" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9218,18 +9274,22 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="16" t="str">
+        <f>學生資料表!E8</f>
+        <v>邱育誠</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="43" t="str">
+      <c r="E14" s="43" t="str">
         <f>學生資料表!C8&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181127@gm.lhu.edu.tw</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="G14" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -9238,18 +9298,22 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="16" t="str">
+        <f>學生資料表!E9</f>
+        <v>陳冠樺</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D15" s="43" t="str">
+      <c r="E15" s="43" t="str">
         <f>學生資料表!C9&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181168@gm.lhu.edu.tw</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="G15" s="18" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -9258,18 +9322,22 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="16" t="str">
+        <f>學生資料表!E10</f>
+        <v>高御祐</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D16" s="43" t="str">
+      <c r="E16" s="43" t="str">
         <f>學生資料表!C10&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181209@gm.lhu.edu.tw</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="G16" s="18" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9278,18 +9346,22 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="16" t="str">
+        <f>學生資料表!E11</f>
+        <v>葉彥綸</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D17" s="43" t="str">
+      <c r="E17" s="43" t="str">
         <f>學生資料表!C11&amp;"@gm.lhu.edu.tw"</f>
         <v>D1094181250@gm.lhu.edu.tw</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="G17" s="18" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9298,18 +9370,22 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="16" t="str">
+        <f>學生資料表!E12</f>
+        <v>歐翰文</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D18" s="43" t="str">
+      <c r="E18" s="43" t="str">
         <f>學生資料表!C12&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114162716@gm.lhu.edu.tw</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="G18" s="18" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9318,18 +9394,22 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="16" t="str">
+        <f>學生資料表!E13</f>
+        <v>林澤佑</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D19" s="43" t="str">
+      <c r="E19" s="43" t="str">
         <f>學生資料表!C13&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114161029@gm.lhu.edu.tw</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="G19" s="18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -9338,18 +9418,22 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="16" t="str">
+        <f>學生資料表!E14</f>
+        <v>爐宇廷</v>
+      </c>
+      <c r="D20" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D20" s="43" t="str">
+      <c r="E20" s="43" t="str">
         <f>學生資料表!C14&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114162715@gm.lhu.edu.tw</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="G20" s="18" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9358,18 +9442,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="16" t="str">
+        <f>學生資料表!E15</f>
+        <v>李連元</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="43" t="str">
+      <c r="E21" s="43" t="str">
         <f>學生資料表!C15&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114181057@gm.lhu.edu.tw</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="G21" s="18" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -9378,18 +9466,22 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="16" t="str">
+        <f>學生資料表!E16</f>
+        <v>黃浤栩</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D22" s="43" t="str">
+      <c r="E22" s="43" t="str">
         <f>學生資料表!C16&amp;"@gm.lhu.edu.tw"</f>
         <v>D1104171004@gm.lhu.edu.tw</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="G22" s="18" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9398,18 +9490,22 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="16" t="str">
+        <f>學生資料表!E17</f>
+        <v>孫敬崴</v>
+      </c>
+      <c r="D23" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D23" s="43" t="str">
+      <c r="E23" s="43" t="str">
         <f>學生資料表!C17&amp;"@gm.lhu.edu.tw"</f>
         <v>D1104423001@gm.lhu.edu.tw</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="G23" s="18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -9418,18 +9514,22 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="16" t="str">
+        <f>學生資料表!E18</f>
+        <v>林宏柏</v>
+      </c>
+      <c r="D24" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D24" s="43" t="str">
+      <c r="E24" s="43" t="str">
         <f>學生資料表!C18&amp;"@gm.lhu.edu.tw"</f>
         <v>D1104171007@gm.lhu.edu.tw</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="G24" s="18" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -9438,18 +9538,22 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="16" t="str">
+        <f>學生資料表!E19</f>
+        <v>施宇倫</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D25" s="43" t="str">
+      <c r="E25" s="43" t="str">
         <f>學生資料表!C19&amp;"@gm.lhu.edu.tw"</f>
         <v>D1104171003@gm.lhu.edu.tw</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="G25" s="18" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9458,18 +9562,22 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="16" t="str">
+        <f>學生資料表!E20</f>
+        <v>馮俊頡</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D26" s="43" t="str">
+      <c r="E26" s="43" t="str">
         <f>學生資料表!C20&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114111012@gm.lhu.edu.tw</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="G26" s="18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9478,18 +9586,22 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="16" t="str">
+        <f>學生資料表!E21</f>
+        <v>林邇勳</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D27" s="43" t="str">
+      <c r="E27" s="43" t="str">
         <f>學生資料表!C21&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114111049@gm.lhu.edu.tw</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="G27" s="18" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -9498,18 +9610,22 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="16" t="str">
+        <f>學生資料表!E22</f>
+        <v>林豫德</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D28" s="43" t="str">
+      <c r="E28" s="43" t="str">
         <f>學生資料表!C22&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114112006@gm.lhu.edu.tw</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="G28" s="18" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -9518,18 +9634,22 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="16" t="str">
+        <f>學生資料表!E23</f>
+        <v>林暐棋</v>
+      </c>
+      <c r="D29" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D29" s="43" t="str">
+      <c r="E29" s="43" t="str">
         <f>學生資料表!C23&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114112050@gm.lhu.edu.tw</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="G29" s="18" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -9538,18 +9658,22 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="16" t="str">
+        <f>學生資料表!E24</f>
+        <v>劉聿</v>
+      </c>
+      <c r="D30" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D30" s="43" t="str">
+      <c r="E30" s="43" t="str">
         <f>學生資料表!C24&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114181050@gm.lhu.edu.tw</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="G30" s="18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="16">
         <f>ROW()-1</f>
         <v>30</v>
@@ -9558,25 +9682,32 @@
         <f>ROW()-1</f>
         <v>30</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="16" t="str">
+        <f>學生資料表!E25</f>
+        <v>楊凱丞</v>
+      </c>
+      <c r="D31" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="D31" s="43" t="str">
+      <c r="E31" s="43" t="str">
         <f>學生資料表!C25&amp;"@gm.lhu.edu.tw"</f>
         <v>D1114161706@gm.lhu.edu.tw</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="G31" s="18" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="B32" s="18"/>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33" s="18"/>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20397"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LHU\1111Class\wamp64\www\team01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6190E169-3248-43B4-974B-C3E428F1B0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7092E1E-1E1B-4C71-97A4-276D1EE1B0DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="871" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" tabRatio="871" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
@@ -33,24 +33,11 @@
     <sheet name="使用者表格(users)" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="408">
   <si>
     <t>中文欄位名稱</t>
   </si>
@@ -1461,6 +1448,18 @@
   </si>
   <si>
     <t>根據長期晚歸資料決定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房間照片上傳路徑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomphoto_file_path</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1761,7 +1760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1934,6 +1933,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2250,18 +2260,18 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3317,18 +3327,18 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" style="57" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="58" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="58" customWidth="1"/>
     <col min="4" max="4" width="13" style="58" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="45" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="58" customWidth="1"/>
     <col min="7" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
@@ -3581,14 +3591,14 @@
       <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="49" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="49" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="49" customWidth="1"/>
     <col min="7" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
@@ -3747,14 +3757,14 @@
       <selection activeCell="F7" sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="49" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="49" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="49" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="49" customWidth="1"/>
     <col min="7" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
@@ -3895,14 +3905,14 @@
       <selection activeCell="F10" sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="49" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="49" customWidth="1"/>
     <col min="7" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
@@ -4097,14 +4107,14 @@
       <selection activeCell="F11" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="61" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="49" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="49" customWidth="1"/>
     <col min="3" max="3" width="18" style="49" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="49" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="49" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="49" customWidth="1"/>
     <col min="7" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
@@ -4318,14 +4328,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.25" style="61" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="49" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="49" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="61" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="49" customWidth="1"/>
     <col min="4" max="4" width="13" style="49" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="33" customWidth="1"/>
-    <col min="6" max="6" width="33.625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" style="49" customWidth="1"/>
     <col min="7" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
@@ -4631,14 +4641,14 @@
       <selection activeCell="F10" sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="61" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="49" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="49" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="49" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="61" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="49" customWidth="1"/>
     <col min="7" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
@@ -4823,20 +4833,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="61" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="49" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="49" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="49" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="49" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="49" customWidth="1"/>
     <col min="7" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
@@ -4916,26 +4926,26 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>366</v>
+        <v>405</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>406</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="46"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="45" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>290</v>
@@ -4948,26 +4958,26 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="45" t="s">
-        <v>22</v>
+        <v>368</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>24</v>
+        <v>290</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="63"/>
+        <v>161</v>
+      </c>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="45" t="s">
-        <v>388</v>
+        <v>22</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>24</v>
@@ -4976,7 +4986,23 @@
       <c r="E8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="46"/>
+      <c r="F8" s="63"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A9" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4993,18 +5019,18 @@
       <selection activeCell="F10" sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="49" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="49" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="49" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="49" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="49" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="49" customWidth="1"/>
     <col min="7" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -5024,7 +5050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2">
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="50" t="s">
         <v>391</v>
       </c>
@@ -5044,7 +5070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="59" t="s">
         <v>395</v>
       </c>
@@ -5062,7 +5088,7 @@
       </c>
       <c r="F3" s="60"/>
     </row>
-    <row r="4" spans="1:6" ht="16.2">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="45" t="s">
         <v>321</v>
       </c>
@@ -5078,7 +5104,7 @@
       </c>
       <c r="F4" s="46"/>
     </row>
-    <row r="5" spans="1:6" ht="16.2">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="45" t="s">
         <v>310</v>
       </c>
@@ -5094,7 +5120,7 @@
       </c>
       <c r="F5" s="46"/>
     </row>
-    <row r="6" spans="1:6" ht="16.2">
+    <row r="6" spans="1:6" ht="16.5">
       <c r="A6" s="45" t="s">
         <v>311</v>
       </c>
@@ -5110,7 +5136,7 @@
       </c>
       <c r="F6" s="46"/>
     </row>
-    <row r="7" spans="1:6" ht="16.2">
+    <row r="7" spans="1:6" ht="16.5">
       <c r="A7" s="45" t="s">
         <v>313</v>
       </c>
@@ -5126,7 +5152,7 @@
       </c>
       <c r="F7" s="63"/>
     </row>
-    <row r="8" spans="1:6" ht="16.2">
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="45" t="s">
         <v>314</v>
       </c>
@@ -5142,7 +5168,7 @@
       </c>
       <c r="F8" s="46"/>
     </row>
-    <row r="9" spans="1:6" ht="16.2">
+    <row r="9" spans="1:6" ht="16.5">
       <c r="A9" s="52" t="s">
         <v>398</v>
       </c>
@@ -5158,7 +5184,7 @@
       </c>
       <c r="F9" s="46"/>
     </row>
-    <row r="10" spans="1:6" ht="16.2">
+    <row r="10" spans="1:6" ht="16.5">
       <c r="A10" s="52" t="s">
         <v>25</v>
       </c>
@@ -5192,14 +5218,14 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="9" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -6249,13 +6275,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
@@ -6363,14 +6389,14 @@
       <selection activeCell="G2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="9" customWidth="1"/>
     <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7036,17 +7062,17 @@
       <selection activeCell="B2" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
@@ -7899,19 +7925,19 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8042,14 +8068,14 @@
       <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8129,23 +8155,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -8155,20 +8182,23 @@
       <c r="C1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="66" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="6">
         <f>ROW()-1</f>
         <v>1</v>
@@ -8179,16 +8209,20 @@
       <c r="C2" s="6">
         <v>6</v>
       </c>
-      <c r="D2" s="37" t="str">
+      <c r="D2" s="67" t="str">
+        <f>"storage/roomphotos/0326/"&amp;C2&amp;"/"&amp;C2&amp;".jpg"</f>
+        <v>storage/roomphotos/0326/6/6.jpg</v>
+      </c>
+      <c r="E2" s="37" t="str">
         <f>"storage/uploads/0326/"&amp;C2&amp;"/"&amp;C2&amp;".jpg"</f>
         <v>storage/uploads/0326/6/6.jpg</v>
       </c>
-      <c r="E2" s="37" t="str">
+      <c r="F2" s="37" t="str">
         <f>"storage/webcams/0326/"&amp;C2&amp;"/"&amp;C2&amp;".jpg"</f>
         <v>storage/webcams/0326/6/6.jpg</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="6">
         <f>ROW()-1</f>
         <v>2</v>
@@ -8199,16 +8233,20 @@
       <c r="C3" s="6">
         <v>3</v>
       </c>
-      <c r="D3" s="37" t="str">
-        <f t="shared" ref="D3:D31" si="0">"storage/uploads/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
+      <c r="D3" s="67" t="str">
+        <f>"storage/roomphotos/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
+        <v>storage/roomphotos/0326/3/3.jpg</v>
+      </c>
+      <c r="E3" s="37" t="str">
+        <f t="shared" ref="E3:E31" si="0">"storage/uploads/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
         <v>storage/uploads/0326/3/3.jpg</v>
       </c>
-      <c r="E3" s="37" t="str">
-        <f t="shared" ref="E3:E31" si="1">"storage/webcams/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
+      <c r="F3" s="37" t="str">
+        <f t="shared" ref="F3:F31" si="1">"storage/webcams/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
         <v>storage/webcams/0326/3/3.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A30" si="2">ROW()-1</f>
         <v>3</v>
@@ -8219,16 +8257,20 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="37" t="str">
+      <c r="D4" s="67" t="str">
+        <f t="shared" ref="D4:D31" si="3">"storage/roomphotos/0326/"&amp;C4&amp;"/"&amp;C4&amp;".jpg"</f>
+        <v>storage/roomphotos/0326/1/1.jpg</v>
+      </c>
+      <c r="E4" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/1/1.jpg</v>
       </c>
-      <c r="E4" s="37" t="str">
+      <c r="F4" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/1/1.jpg</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -8239,16 +8281,20 @@
       <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="37" t="str">
+      <c r="D5" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/4/4.jpg</v>
+      </c>
+      <c r="E5" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/4/4.jpg</v>
       </c>
-      <c r="E5" s="37" t="str">
+      <c r="F5" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/4/4.jpg</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8259,16 +8305,20 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="37" t="str">
+      <c r="D6" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/2/2.jpg</v>
+      </c>
+      <c r="E6" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/2/2.jpg</v>
       </c>
-      <c r="E6" s="37" t="str">
+      <c r="F6" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/2/2.jpg</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -8279,16 +8329,20 @@
       <c r="C7" s="6">
         <v>8</v>
       </c>
-      <c r="D7" s="37" t="str">
+      <c r="D7" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/8/8.jpg</v>
+      </c>
+      <c r="E7" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/8/8.jpg</v>
       </c>
-      <c r="E7" s="37" t="str">
+      <c r="F7" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/8/8.jpg</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -8299,16 +8353,20 @@
       <c r="C8" s="6">
         <v>9</v>
       </c>
-      <c r="D8" s="37" t="str">
+      <c r="D8" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/9/9.jpg</v>
+      </c>
+      <c r="E8" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/9/9.jpg</v>
       </c>
-      <c r="E8" s="37" t="str">
+      <c r="F8" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/9/9.jpg</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -8319,16 +8377,20 @@
       <c r="C9" s="6">
         <v>7</v>
       </c>
-      <c r="D9" s="37" t="str">
+      <c r="D9" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/7/7.jpg</v>
+      </c>
+      <c r="E9" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/7/7.jpg</v>
       </c>
-      <c r="E9" s="37" t="str">
+      <c r="F9" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/7/7.jpg</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -8339,16 +8401,20 @@
       <c r="C10" s="6">
         <v>11</v>
       </c>
-      <c r="D10" s="37" t="str">
+      <c r="D10" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/11/11.jpg</v>
+      </c>
+      <c r="E10" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/11/11.jpg</v>
       </c>
-      <c r="E10" s="37" t="str">
+      <c r="F10" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/11/11.jpg</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8359,16 +8425,20 @@
       <c r="C11" s="6">
         <v>10</v>
       </c>
-      <c r="D11" s="37" t="str">
+      <c r="D11" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/10/10.jpg</v>
+      </c>
+      <c r="E11" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/10/10.jpg</v>
       </c>
-      <c r="E11" s="37" t="str">
+      <c r="F11" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/10/10.jpg</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -8379,16 +8449,20 @@
       <c r="C12" s="6">
         <v>12</v>
       </c>
-      <c r="D12" s="37" t="str">
+      <c r="D12" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/12/12.jpg</v>
+      </c>
+      <c r="E12" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/12/12.jpg</v>
       </c>
-      <c r="E12" s="37" t="str">
+      <c r="F12" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/12/12.jpg</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -8399,16 +8473,20 @@
       <c r="C13" s="6">
         <v>13</v>
       </c>
-      <c r="D13" s="37" t="str">
+      <c r="D13" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/13/13.jpg</v>
+      </c>
+      <c r="E13" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/13/13.jpg</v>
       </c>
-      <c r="E13" s="37" t="str">
+      <c r="F13" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/13/13.jpg</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -8419,16 +8497,20 @@
       <c r="C14" s="6">
         <v>14</v>
       </c>
-      <c r="D14" s="37" t="str">
+      <c r="D14" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/14/14.jpg</v>
+      </c>
+      <c r="E14" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/14/14.jpg</v>
       </c>
-      <c r="E14" s="37" t="str">
+      <c r="F14" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/14/14.jpg</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -8439,16 +8521,20 @@
       <c r="C15" s="6">
         <v>15</v>
       </c>
-      <c r="D15" s="37" t="str">
+      <c r="D15" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/15/15.jpg</v>
+      </c>
+      <c r="E15" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/15/15.jpg</v>
       </c>
-      <c r="E15" s="37" t="str">
+      <c r="F15" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/15/15.jpg</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -8459,16 +8545,20 @@
       <c r="C16" s="6">
         <v>16</v>
       </c>
-      <c r="D16" s="37" t="str">
+      <c r="D16" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/16/16.jpg</v>
+      </c>
+      <c r="E16" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/16/16.jpg</v>
       </c>
-      <c r="E16" s="37" t="str">
+      <c r="F16" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/16/16.jpg</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="6">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -8479,16 +8569,20 @@
       <c r="C17" s="6">
         <v>18</v>
       </c>
-      <c r="D17" s="37" t="str">
+      <c r="D17" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/18/18.jpg</v>
+      </c>
+      <c r="E17" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/18/18.jpg</v>
       </c>
-      <c r="E17" s="37" t="str">
+      <c r="F17" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/18/18.jpg</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="6">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -8499,16 +8593,20 @@
       <c r="C18" s="6">
         <v>19</v>
       </c>
-      <c r="D18" s="37" t="str">
+      <c r="D18" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/19/19.jpg</v>
+      </c>
+      <c r="E18" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/19/19.jpg</v>
       </c>
-      <c r="E18" s="37" t="str">
+      <c r="F18" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/19/19.jpg</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="6">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -8519,16 +8617,20 @@
       <c r="C19" s="6">
         <v>20</v>
       </c>
-      <c r="D19" s="37" t="str">
+      <c r="D19" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/20/20.jpg</v>
+      </c>
+      <c r="E19" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/20/20.jpg</v>
       </c>
-      <c r="E19" s="37" t="str">
+      <c r="F19" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/20/20.jpg</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="6">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -8539,16 +8641,20 @@
       <c r="C20" s="6">
         <v>17</v>
       </c>
-      <c r="D20" s="37" t="str">
+      <c r="D20" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/17/17.jpg</v>
+      </c>
+      <c r="E20" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/17/17.jpg</v>
       </c>
-      <c r="E20" s="37" t="str">
+      <c r="F20" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/17/17.jpg</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -8559,16 +8665,20 @@
       <c r="C21" s="6">
         <v>26</v>
       </c>
-      <c r="D21" s="37" t="str">
+      <c r="D21" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/26/26.jpg</v>
+      </c>
+      <c r="E21" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/26/26.jpg</v>
       </c>
-      <c r="E21" s="37" t="str">
+      <c r="F21" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/26/26.jpg</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="6">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -8579,16 +8689,20 @@
       <c r="C22" s="6">
         <v>21</v>
       </c>
-      <c r="D22" s="37" t="str">
+      <c r="D22" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/21/21.jpg</v>
+      </c>
+      <c r="E22" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/21/21.jpg</v>
       </c>
-      <c r="E22" s="37" t="str">
+      <c r="F22" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/21/21.jpg</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="6">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -8599,16 +8713,20 @@
       <c r="C23" s="6">
         <v>23</v>
       </c>
-      <c r="D23" s="37" t="str">
+      <c r="D23" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/23/23.jpg</v>
+      </c>
+      <c r="E23" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/23/23.jpg</v>
       </c>
-      <c r="E23" s="37" t="str">
+      <c r="F23" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/23/23.jpg</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="6">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -8619,16 +8737,20 @@
       <c r="C24" s="6">
         <v>22</v>
       </c>
-      <c r="D24" s="37" t="str">
+      <c r="D24" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/22/22.jpg</v>
+      </c>
+      <c r="E24" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/22/22.jpg</v>
       </c>
-      <c r="E24" s="37" t="str">
+      <c r="F24" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/22/22.jpg</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -8639,16 +8761,20 @@
       <c r="C25" s="6">
         <v>24</v>
       </c>
-      <c r="D25" s="37" t="str">
+      <c r="D25" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/24/24.jpg</v>
+      </c>
+      <c r="E25" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/24/24.jpg</v>
       </c>
-      <c r="E25" s="37" t="str">
+      <c r="F25" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/24/24.jpg</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="6">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -8659,16 +8785,20 @@
       <c r="C26" s="6">
         <v>25</v>
       </c>
-      <c r="D26" s="37" t="str">
+      <c r="D26" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/25/25.jpg</v>
+      </c>
+      <c r="E26" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/25/25.jpg</v>
       </c>
-      <c r="E26" s="37" t="str">
+      <c r="F26" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/25/25.jpg</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="6">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -8679,16 +8809,20 @@
       <c r="C27" s="6">
         <v>27</v>
       </c>
-      <c r="D27" s="37" t="str">
+      <c r="D27" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/27/27.jpg</v>
+      </c>
+      <c r="E27" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/27/27.jpg</v>
       </c>
-      <c r="E27" s="37" t="str">
+      <c r="F27" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/27/27.jpg</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="6">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -8699,16 +8833,20 @@
       <c r="C28" s="6">
         <v>28</v>
       </c>
-      <c r="D28" s="37" t="str">
+      <c r="D28" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/28/28.jpg</v>
+      </c>
+      <c r="E28" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/28/28.jpg</v>
       </c>
-      <c r="E28" s="37" t="str">
+      <c r="F28" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/28/28.jpg</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="6">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -8719,16 +8857,20 @@
       <c r="C29" s="6">
         <v>29</v>
       </c>
-      <c r="D29" s="37" t="str">
+      <c r="D29" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/29/29.jpg</v>
+      </c>
+      <c r="E29" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/29/29.jpg</v>
       </c>
-      <c r="E29" s="37" t="str">
+      <c r="F29" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/29/29.jpg</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="6">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -8739,16 +8881,20 @@
       <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="37" t="str">
+      <c r="D30" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/30/30.jpg</v>
+      </c>
+      <c r="E30" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/30/30.jpg</v>
       </c>
-      <c r="E30" s="37" t="str">
+      <c r="F30" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/30/30.jpg</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="6">
         <f>ROW()-1</f>
         <v>30</v>
@@ -8759,11 +8905,15 @@
       <c r="C31" s="6">
         <v>5</v>
       </c>
-      <c r="D31" s="37" t="str">
+      <c r="D31" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v>storage/roomphotos/0326/5/5.jpg</v>
+      </c>
+      <c r="E31" s="37" t="str">
         <f t="shared" si="0"/>
         <v>storage/uploads/0326/5/5.jpg</v>
       </c>
-      <c r="E31" s="37" t="str">
+      <c r="F31" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/5/5.jpg</v>
       </c>
@@ -8783,20 +8933,20 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>

--- a/第一組宿舍管理系統.xlsx
+++ b/第一組宿舍管理系統.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LHU\1111Class\wamp64\www\team01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7092E1E-1E1B-4C71-97A4-276D1EE1B0DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0995A83-006D-447D-8D44-E0E3F3045EA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" tabRatio="871" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" tabRatio="871" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="405">
   <si>
     <t>中文欄位名稱</t>
   </si>
@@ -1448,18 +1448,6 @@
   </si>
   <si>
     <t>根據長期晚歸資料決定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>房間照片上傳路徑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>roomphoto_file_path</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1760,7 +1748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1933,17 +1921,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4833,10 +4810,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4926,26 +4903,26 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>406</v>
+        <v>365</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>366</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="64" t="s">
-        <v>407</v>
-      </c>
-      <c r="F5" s="65"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="45" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>290</v>
@@ -4958,26 +4935,26 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="45" t="s">
-        <v>368</v>
+        <v>22</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="46"/>
+        <v>17</v>
+      </c>
+      <c r="F7" s="63"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="45" t="s">
-        <v>22</v>
+        <v>388</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>400</v>
+        <v>26</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>24</v>
@@ -4986,23 +4963,7 @@
       <c r="E8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="63"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A9" s="45" t="s">
-        <v>388</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="46"/>
+      <c r="F8" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8155,10 +8116,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8166,13 +8127,12 @@
     <col min="1" max="1" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="43" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -8182,23 +8142,20 @@
       <c r="C1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="66" t="s">
-        <v>405</v>
+      <c r="D1" s="11" t="s">
+        <v>365</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="F1" s="11" t="s">
         <v>368</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1">
       <c r="A2" s="6">
         <f>ROW()-1</f>
         <v>1</v>
@@ -8209,20 +8166,16 @@
       <c r="C2" s="6">
         <v>6</v>
       </c>
-      <c r="D2" s="67" t="str">
-        <f>"storage/roomphotos/0326/"&amp;C2&amp;"/"&amp;C2&amp;".jpg"</f>
-        <v>storage/roomphotos/0326/6/6.jpg</v>
-      </c>
-      <c r="E2" s="37" t="str">
+      <c r="D2" s="37" t="str">
         <f>"storage/uploads/0326/"&amp;C2&amp;"/"&amp;C2&amp;".jpg"</f>
         <v>storage/uploads/0326/6/6.jpg</v>
       </c>
-      <c r="F2" s="37" t="str">
+      <c r="E2" s="37" t="str">
         <f>"storage/webcams/0326/"&amp;C2&amp;"/"&amp;C2&amp;".jpg"</f>
         <v>storage/webcams/0326/6/6.jpg</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
       <c r="A3" s="6">
         <f>ROW()-1</f>
         <v>2</v>
@@ -8233,20 +8186,16 @@
       <c r="C3" s="6">
         <v>3</v>
       </c>
-      <c r="D3" s="67" t="str">
-        <f>"storage/roomphotos/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
-        <v>storage/roomphotos/0326/3/3.jpg</v>
+      <c r="D3" s="37" t="str">
+        <f t="shared" ref="D3:D31" si="0">"storage/uploads/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
+        <v>storage/uploads/0326/3/3.jpg</v>
       </c>
       <c r="E3" s="37" t="str">
-        <f t="shared" ref="E3:E31" si="0">"storage/uploads/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
-        <v>storage/uploads/0326/3/3.jpg</v>
-      </c>
-      <c r="F3" s="37" t="str">
-        <f t="shared" ref="F3:F31" si="1">"storage/webcams/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
+        <f t="shared" ref="E3:E31" si="1">"storage/webcams/0326/"&amp;C3&amp;"/"&amp;C3&amp;".jpg"</f>
         <v>storage/webcams/0326/3/3.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="6">
         <f t="shared" ref="A4:A30" si="2">ROW()-1</f>
         <v>3</v>
@@ -8257,20 +8206,16 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="67" t="str">
-        <f t="shared" ref="D4:D31" si="3">"storage/roomphotos/0326/"&amp;C4&amp;"/"&amp;C4&amp;".jpg"</f>
-        <v>storage/roomphotos/0326/1/1.jpg</v>
+      <c r="D4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/1/1.jpg</v>
       </c>
       <c r="E4" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/1/1.jpg</v>
-      </c>
-      <c r="F4" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/1/1.jpg</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -8281,20 +8226,16 @@
       <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/4/4.jpg</v>
+      <c r="D5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/4/4.jpg</v>
       </c>
       <c r="E5" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/4/4.jpg</v>
-      </c>
-      <c r="F5" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/4/4.jpg</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8305,20 +8246,16 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/2/2.jpg</v>
+      <c r="D6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/2/2.jpg</v>
       </c>
       <c r="E6" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/2/2.jpg</v>
-      </c>
-      <c r="F6" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/2/2.jpg</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -8329,20 +8266,16 @@
       <c r="C7" s="6">
         <v>8</v>
       </c>
-      <c r="D7" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/8/8.jpg</v>
+      <c r="D7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/8/8.jpg</v>
       </c>
       <c r="E7" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/8/8.jpg</v>
-      </c>
-      <c r="F7" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/8/8.jpg</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -8353,20 +8286,16 @@
       <c r="C8" s="6">
         <v>9</v>
       </c>
-      <c r="D8" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/9/9.jpg</v>
+      <c r="D8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/9/9.jpg</v>
       </c>
       <c r="E8" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/9/9.jpg</v>
-      </c>
-      <c r="F8" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/9/9.jpg</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -8377,20 +8306,16 @@
       <c r="C9" s="6">
         <v>7</v>
       </c>
-      <c r="D9" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/7/7.jpg</v>
+      <c r="D9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/7/7.jpg</v>
       </c>
       <c r="E9" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/7/7.jpg</v>
-      </c>
-      <c r="F9" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/7/7.jpg</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -8401,20 +8326,16 @@
       <c r="C10" s="6">
         <v>11</v>
       </c>
-      <c r="D10" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/11/11.jpg</v>
+      <c r="D10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/11/11.jpg</v>
       </c>
       <c r="E10" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/11/11.jpg</v>
-      </c>
-      <c r="F10" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/11/11.jpg</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8425,20 +8346,16 @@
       <c r="C11" s="6">
         <v>10</v>
       </c>
-      <c r="D11" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/10/10.jpg</v>
+      <c r="D11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/10/10.jpg</v>
       </c>
       <c r="E11" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/10/10.jpg</v>
-      </c>
-      <c r="F11" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/10/10.jpg</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" s="6">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -8449,20 +8366,16 @@
       <c r="C12" s="6">
         <v>12</v>
       </c>
-      <c r="D12" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/12/12.jpg</v>
+      <c r="D12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/12/12.jpg</v>
       </c>
       <c r="E12" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/12/12.jpg</v>
-      </c>
-      <c r="F12" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/12/12.jpg</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -8473,20 +8386,16 @@
       <c r="C13" s="6">
         <v>13</v>
       </c>
-      <c r="D13" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/13/13.jpg</v>
+      <c r="D13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/13/13.jpg</v>
       </c>
       <c r="E13" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/13/13.jpg</v>
-      </c>
-      <c r="F13" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/13/13.jpg</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" s="6">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -8497,20 +8406,16 @@
       <c r="C14" s="6">
         <v>14</v>
       </c>
-      <c r="D14" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/14/14.jpg</v>
+      <c r="D14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/14/14.jpg</v>
       </c>
       <c r="E14" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/14/14.jpg</v>
-      </c>
-      <c r="F14" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/14/14.jpg</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -8521,20 +8426,16 @@
       <c r="C15" s="6">
         <v>15</v>
       </c>
-      <c r="D15" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/15/15.jpg</v>
+      <c r="D15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/15/15.jpg</v>
       </c>
       <c r="E15" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/15/15.jpg</v>
-      </c>
-      <c r="F15" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/15/15.jpg</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="6">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -8545,20 +8446,16 @@
       <c r="C16" s="6">
         <v>16</v>
       </c>
-      <c r="D16" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/16/16.jpg</v>
+      <c r="D16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/16/16.jpg</v>
       </c>
       <c r="E16" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/16/16.jpg</v>
-      </c>
-      <c r="F16" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/16/16.jpg</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" s="6">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -8569,20 +8466,16 @@
       <c r="C17" s="6">
         <v>18</v>
       </c>
-      <c r="D17" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/18/18.jpg</v>
+      <c r="D17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/18/18.jpg</v>
       </c>
       <c r="E17" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/18/18.jpg</v>
-      </c>
-      <c r="F17" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/18/18.jpg</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" s="6">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -8593,20 +8486,16 @@
       <c r="C18" s="6">
         <v>19</v>
       </c>
-      <c r="D18" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/19/19.jpg</v>
+      <c r="D18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/19/19.jpg</v>
       </c>
       <c r="E18" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/19/19.jpg</v>
-      </c>
-      <c r="F18" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/19/19.jpg</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" s="6">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -8617,20 +8506,16 @@
       <c r="C19" s="6">
         <v>20</v>
       </c>
-      <c r="D19" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/20/20.jpg</v>
+      <c r="D19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/20/20.jpg</v>
       </c>
       <c r="E19" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/20/20.jpg</v>
-      </c>
-      <c r="F19" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/20/20.jpg</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" s="6">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -8641,20 +8526,16 @@
       <c r="C20" s="6">
         <v>17</v>
       </c>
-      <c r="D20" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/17/17.jpg</v>
+      <c r="D20" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/17/17.jpg</v>
       </c>
       <c r="E20" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/17/17.jpg</v>
-      </c>
-      <c r="F20" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/17/17.jpg</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -8665,20 +8546,16 @@
       <c r="C21" s="6">
         <v>26</v>
       </c>
-      <c r="D21" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/26/26.jpg</v>
+      <c r="D21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/26/26.jpg</v>
       </c>
       <c r="E21" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/26/26.jpg</v>
-      </c>
-      <c r="F21" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/26/26.jpg</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" s="6">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -8689,20 +8566,16 @@
       <c r="C22" s="6">
         <v>21</v>
       </c>
-      <c r="D22" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/21/21.jpg</v>
+      <c r="D22" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/21/21.jpg</v>
       </c>
       <c r="E22" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/21/21.jpg</v>
-      </c>
-      <c r="F22" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/21/21.jpg</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" s="6">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -8713,20 +8586,16 @@
       <c r="C23" s="6">
         <v>23</v>
       </c>
-      <c r="D23" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/23/23.jpg</v>
+      <c r="D23" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/23/23.jpg</v>
       </c>
       <c r="E23" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/23/23.jpg</v>
-      </c>
-      <c r="F23" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/23/23.jpg</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" s="6">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -8737,20 +8606,16 @@
       <c r="C24" s="6">
         <v>22</v>
       </c>
-      <c r="D24" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/22/22.jpg</v>
+      <c r="D24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/22/22.jpg</v>
       </c>
       <c r="E24" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/22/22.jpg</v>
-      </c>
-      <c r="F24" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/22/22.jpg</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -8761,20 +8626,16 @@
       <c r="C25" s="6">
         <v>24</v>
       </c>
-      <c r="D25" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/24/24.jpg</v>
+      <c r="D25" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/24/24.jpg</v>
       </c>
       <c r="E25" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/24/24.jpg</v>
-      </c>
-      <c r="F25" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/24/24.jpg</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="6">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -8785,20 +8646,16 @@
       <c r="C26" s="6">
         <v>25</v>
       </c>
-      <c r="D26" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/25/25.jpg</v>
+      <c r="D26" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/25/25.jpg</v>
       </c>
       <c r="E26" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/25/25.jpg</v>
-      </c>
-      <c r="F26" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/25/25.jpg</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" s="6">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -8809,20 +8666,16 @@
       <c r="C27" s="6">
         <v>27</v>
       </c>
-      <c r="D27" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/27/27.jpg</v>
+      <c r="D27" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/27/27.jpg</v>
       </c>
       <c r="E27" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/27/27.jpg</v>
-      </c>
-      <c r="F27" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/27/27.jpg</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" s="6">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -8833,20 +8686,16 @@
       <c r="C28" s="6">
         <v>28</v>
       </c>
-      <c r="D28" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/28/28.jpg</v>
+      <c r="D28" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/28/28.jpg</v>
       </c>
       <c r="E28" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/28/28.jpg</v>
-      </c>
-      <c r="F28" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/28/28.jpg</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" s="6">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -8857,20 +8706,16 @@
       <c r="C29" s="6">
         <v>29</v>
       </c>
-      <c r="D29" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/29/29.jpg</v>
+      <c r="D29" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/29/29.jpg</v>
       </c>
       <c r="E29" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/29/29.jpg</v>
-      </c>
-      <c r="F29" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/29/29.jpg</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" s="6">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -8881,20 +8726,16 @@
       <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D30" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/30/30.jpg</v>
+      <c r="D30" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/30/30.jpg</v>
       </c>
       <c r="E30" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/30/30.jpg</v>
-      </c>
-      <c r="F30" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/30/30.jpg</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" s="6">
         <f>ROW()-1</f>
         <v>30</v>
@@ -8905,15 +8746,11 @@
       <c r="C31" s="6">
         <v>5</v>
       </c>
-      <c r="D31" s="67" t="str">
-        <f t="shared" si="3"/>
-        <v>storage/roomphotos/0326/5/5.jpg</v>
+      <c r="D31" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>storage/uploads/0326/5/5.jpg</v>
       </c>
       <c r="E31" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>storage/uploads/0326/5/5.jpg</v>
-      </c>
-      <c r="F31" s="37" t="str">
         <f t="shared" si="1"/>
         <v>storage/webcams/0326/5/5.jpg</v>
       </c>
